--- a/Jashera 2021/Jashera 2021.xlsx
+++ b/Jashera 2021/Jashera 2021.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$52</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
-  <si>
-    <t>Отметка времени</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
   <si>
     <t>Ваше Имя и Фамилия</t>
   </si>
@@ -37,148 +37,342 @@
     <t>Я хочу поехать на весеннюю полевую практику</t>
   </si>
   <si>
+    <t>Александра Ишмитова</t>
+  </si>
+  <si>
+    <t>gariolga@yandex.ru</t>
+  </si>
+  <si>
+    <t>АВДА</t>
+  </si>
+  <si>
+    <t>Полностью привит(а) от энцефалита</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Александра Челкак</t>
+  </si>
+  <si>
+    <t>a.d.chelkak@gmail.com</t>
+  </si>
+  <si>
+    <t>Собираюсь сделать прививку</t>
+  </si>
+  <si>
+    <t>Алина Валицкая</t>
+  </si>
+  <si>
+    <t>elena.mango2209@gmail.com</t>
+  </si>
+  <si>
+    <t>Алина Меличева</t>
+  </si>
+  <si>
+    <t>loumelala@gmail.com</t>
+  </si>
+  <si>
+    <t>ВМВС</t>
+  </si>
+  <si>
+    <t>Прививки нет и не будет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Махнюк Арина </t>
+  </si>
+  <si>
+    <t>arina.makhnyuk@mail.ru</t>
+  </si>
+  <si>
+    <t>Атаманов Андрей Иванович</t>
+  </si>
+  <si>
+    <t>andriklif@mail.ru</t>
+  </si>
+  <si>
+    <t>Пройден первый этап, нужна ревакцинация, которую собираюсь сделать</t>
+  </si>
+  <si>
+    <t>Валерия Сидорова</t>
+  </si>
+  <si>
+    <t>ip-sidorov@mail.ru</t>
+  </si>
+  <si>
+    <t>Островский Виктор</t>
+  </si>
+  <si>
+    <t>ostrov1904@gmail.com</t>
+  </si>
+  <si>
+    <t>Глеб Юрков</t>
+  </si>
+  <si>
+    <t>skazhi300@gmail.com</t>
+  </si>
+  <si>
+    <t>Более 3 лет</t>
+  </si>
+  <si>
+    <t>Даниил Рябинков</t>
+  </si>
+  <si>
+    <t>rabinkovdaniil8@gmail.com</t>
+  </si>
+  <si>
+    <t>Демидова Алина</t>
+  </si>
+  <si>
+    <t>demyano4ka@gmail.com</t>
+  </si>
+  <si>
+    <t>Демидова Елизавета</t>
+  </si>
+  <si>
+    <t>demidova848lisa@yandex.ru</t>
+  </si>
+  <si>
+    <t>Евгений Зенков</t>
+  </si>
+  <si>
+    <t>julzenkov@gmail.com</t>
+  </si>
+  <si>
     <t>Евдокимова Алёна</t>
   </si>
   <si>
     <t>alenaevdok2004@gmail.com</t>
   </si>
   <si>
-    <t>ВМ</t>
-  </si>
-  <si>
-    <t>Более 3 лет</t>
-  </si>
-  <si>
-    <t>Полностью привит(а) от энцефалита</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Лиза Владыченко</t>
+    <t>Егор Ермошин</t>
+  </si>
+  <si>
+    <t>egalactor2.0@yandex.ru</t>
+  </si>
+  <si>
+    <t>Елизавета Демидова</t>
+  </si>
+  <si>
+    <t>Ершова Татьяна</t>
+  </si>
+  <si>
+    <t>irina_dom@list.ru</t>
+  </si>
+  <si>
+    <t>Иван Опякие</t>
+  </si>
+  <si>
+    <t>mashutka _74@mail.ru</t>
+  </si>
+  <si>
+    <t>Иванов Тимофей</t>
+  </si>
+  <si>
+    <t>Ti4136722@gmail.com</t>
+  </si>
+  <si>
+    <t>Ильмъяров Петр</t>
+  </si>
+  <si>
+    <t>tanya.ulu@gmail.com</t>
+  </si>
+  <si>
+    <t>Нельзя делать прививку по медицинским соображением</t>
+  </si>
+  <si>
+    <t>Нужин Илья</t>
+  </si>
+  <si>
+    <t>ilia.nuzhin@yandex.ru</t>
+  </si>
+  <si>
+    <t>Илюхин Алексей</t>
+  </si>
+  <si>
+    <t>belyanina-e@yandex.ru</t>
+  </si>
+  <si>
+    <t>Кайбанова София</t>
+  </si>
+  <si>
+    <t>queenmargo52@gmail.com</t>
+  </si>
+  <si>
+    <t>Каретная Вероника</t>
+  </si>
+  <si>
+    <t>mdkhalturin@gmail.com</t>
+  </si>
+  <si>
+    <t>Кирилл Лакаев</t>
+  </si>
+  <si>
+    <t>n.lakaeva@mail.ru</t>
+  </si>
+  <si>
+    <t>Кондрашева Мария</t>
+  </si>
+  <si>
+    <t>mariakondr29@gmail.com</t>
+  </si>
+  <si>
+    <t>Константин Башилов</t>
+  </si>
+  <si>
+    <t>Mbatakov@mail.ru</t>
+  </si>
+  <si>
+    <t>Ксения Сизикова</t>
+  </si>
+  <si>
+    <t>k.sizikova@yandex.ru</t>
+  </si>
+  <si>
+    <t>Кудрина Александра</t>
+  </si>
+  <si>
+    <t>Kudrinaa@yandex.ru</t>
+  </si>
+  <si>
+    <t>Кудряшов Тимофей</t>
+  </si>
+  <si>
+    <t>er.we.18@inbox.ru</t>
+  </si>
+  <si>
+    <t>Лакаев Кирилл</t>
+  </si>
+  <si>
+    <t>Владыченко Лиза</t>
   </si>
   <si>
     <t>eule3365@mail.ru</t>
   </si>
   <si>
+    <t>Лиза Гаврилова</t>
+  </si>
+  <si>
+    <t>lizazavr2018@gmail.com</t>
+  </si>
+  <si>
+    <t>Луканина Катя</t>
+  </si>
+  <si>
+    <t>lukanina1983@mail.ru</t>
+  </si>
+  <si>
+    <t>Манылова Ярослава</t>
+  </si>
+  <si>
+    <t>ya.manylova@yandex.ru</t>
+  </si>
+  <si>
+    <t>Богатушин Матвей</t>
+  </si>
+  <si>
+    <t>yana_bogatu@mail.ru</t>
+  </si>
+  <si>
+    <t>Михаил Белокуров</t>
+  </si>
+  <si>
+    <t>mixator.azaza@gmail.ru</t>
+  </si>
+  <si>
+    <t>Надежда Новосельцева</t>
+  </si>
+  <si>
+    <t>uma.ia@yandex.ru</t>
+  </si>
+  <si>
+    <t>Нематова Рената</t>
+  </si>
+  <si>
+    <t>babukaka04@gmail.com</t>
+  </si>
+  <si>
+    <t>Немчинов Владимир</t>
+  </si>
+  <si>
+    <t>babkom@bk.ru</t>
+  </si>
+  <si>
+    <t>Попов Василий</t>
+  </si>
+  <si>
+    <t>tomasius@yandex.ru</t>
+  </si>
+  <si>
+    <t>Семенова Елизавета</t>
+  </si>
+  <si>
+    <t>lizasemenova09@mail.ru</t>
+  </si>
+  <si>
+    <t>Стрекопытова Соня</t>
+  </si>
+  <si>
+    <t>gleucc@ya.ru</t>
+  </si>
+  <si>
+    <t>Фан Анна Михайловна</t>
+  </si>
+  <si>
+    <t>fanya941@mail.ru</t>
+  </si>
+  <si>
+    <t>Федорова Ксения</t>
+  </si>
+  <si>
+    <t>fedma001@mail.ru</t>
+  </si>
+  <si>
+    <t>Хиврич Ульяна</t>
+  </si>
+  <si>
+    <t>ashka05@mail.ru</t>
+  </si>
+  <si>
+    <t>Шилонцев Андрей</t>
+  </si>
+  <si>
+    <t>Andrey.shilontsev@yandex.ru</t>
+  </si>
+  <si>
+    <t>Шипов Даниил</t>
+  </si>
+  <si>
+    <t>kamyshinka@gmail.com</t>
+  </si>
+  <si>
     <t>Шишкина Алина</t>
   </si>
   <si>
     <t>meneviella@gmail.com</t>
   </si>
   <si>
-    <t>Пройден первый этап, нужна ревакцинация, которую собираюсь сделать</t>
-  </si>
-  <si>
-    <t>Ершова Татьяна</t>
-  </si>
-  <si>
-    <t>irina_dom@list.ru</t>
-  </si>
-  <si>
-    <t>Собираюсь сделать прививку</t>
-  </si>
-  <si>
-    <t>Матвей Богатушин</t>
-  </si>
-  <si>
-    <t>yana_bogatu@mail.ru</t>
-  </si>
-  <si>
-    <t>Нематова Рената</t>
-  </si>
-  <si>
-    <t>babukaka04@gmail.com</t>
-  </si>
-  <si>
-    <t>Илюхин Алексей</t>
-  </si>
-  <si>
-    <t>belyanina-e@yandex.ru</t>
-  </si>
-  <si>
-    <t>Федорова Ксения</t>
-  </si>
-  <si>
-    <t>fedma001@mail.ru</t>
-  </si>
-  <si>
-    <t>Нельзя делать прививку по медицинским соображением</t>
-  </si>
-  <si>
-    <t>Кудрина Александра Васильевна</t>
-  </si>
-  <si>
-    <t>Kudrinaa@yandex.ru</t>
-  </si>
-  <si>
-    <t>Попов Василий</t>
-  </si>
-  <si>
-    <t>tomasius@yandex.ru</t>
-  </si>
-  <si>
-    <t>Иванов Тимофей</t>
-  </si>
-  <si>
-    <t>Ti4136722@gmail.com</t>
-  </si>
-  <si>
-    <t>Демидова Алина Витальевна</t>
-  </si>
-  <si>
-    <t>demyano4ka@gmail.com</t>
-  </si>
-  <si>
-    <t>Соня Стрекопытова</t>
-  </si>
-  <si>
-    <t>gleucc@ya.ru</t>
-  </si>
-  <si>
-    <t>Эмма Мелентьева</t>
+    <t>Мелентьева Эмма</t>
   </si>
   <si>
     <t>a.melentyeva@gmail.com</t>
   </si>
   <si>
-    <t>Прививки нет и не будет</t>
-  </si>
-  <si>
-    <t>Кудряшов Тимофей</t>
-  </si>
-  <si>
-    <t>er.we.18@inbox.ru</t>
-  </si>
-  <si>
-    <t>Виктор Островский</t>
-  </si>
-  <si>
-    <t>ostrov1904@gmail.com</t>
-  </si>
-  <si>
-    <t>Арина Махнюк</t>
-  </si>
-  <si>
-    <t>arina.makhnyuk@mail.ru</t>
-  </si>
-  <si>
-    <t>Михаил Белокуров</t>
-  </si>
-  <si>
-    <t>mixator.azaza@gmail.com</t>
+    <t>Юрьева Ангелина Андреевна</t>
+  </si>
+  <si>
+    <t>angelinaureva80@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy\ h:mm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -209,14 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,33 +410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,17 +432,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +488,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -302,24 +503,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,20 +526,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,7 +549,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +687,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,169 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +762,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,22 +793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +823,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -643,45 +855,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,131 +881,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,17 +1015,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1157,23 +1336,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M119"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="33.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="44.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="15.15" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,19 +1371,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3">
-        <v>44265.5003587963</v>
+    </row>
+    <row r="2" hidden="1" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -1212,1028 +1388,1323 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3">
-        <v>44265.5005208333</v>
+    </row>
+    <row r="3" hidden="1" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3">
-        <v>44265.5290972222</v>
+    </row>
+    <row r="4" ht="15.15" hidden="1" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3">
-        <v>44265.8366666667</v>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
-        <v>44266.0029513889</v>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
-        <v>44266.0284259259</v>
+    </row>
+    <row r="7" ht="15.15" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
-        <v>44266.5748726852</v>
+    </row>
+    <row r="8" ht="15.15" hidden="1" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3">
-        <v>44271.5003125</v>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>44275.9057523148</v>
+    </row>
+    <row r="10" ht="15.15" hidden="1" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3">
-        <v>44280.9326157407</v>
+    </row>
+    <row r="11" ht="15.15" hidden="1" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3">
-        <v>44285.8642592593</v>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3">
-        <v>44286.8789236111</v>
+    </row>
+    <row r="13" ht="15.15" hidden="1" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3">
-        <v>44287.5949421296</v>
+    </row>
+    <row r="14" ht="15.15" hidden="1" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3">
-        <v>44288.8077777778</v>
+    </row>
+    <row r="15" ht="15.15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3">
-        <v>44289.4899074074</v>
+    </row>
+    <row r="16" ht="15.15" hidden="1" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3">
-        <v>44289.8374537037</v>
+    </row>
+    <row r="17" ht="15.15" hidden="1" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3">
-        <v>44291.479525463</v>
+    </row>
+    <row r="18" ht="15.15" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3">
-        <v>44291.8391087963</v>
+    </row>
+    <row r="19" ht="15.15" hidden="1" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
         <v>1</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    </row>
+    <row r="20" ht="15.15" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    </row>
+    <row r="21" ht="15.15" hidden="1" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5">
-        <v>44265.8230787037</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6" t="s">
+    </row>
+    <row r="23" ht="15.15" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+    </row>
+    <row r="24" ht="15.15" hidden="1" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+    </row>
+    <row r="26" hidden="1" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+    </row>
+    <row r="27" hidden="1" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+    </row>
+    <row r="28" hidden="1" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+    </row>
+    <row r="29" ht="15.15" hidden="1" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+    </row>
+    <row r="31" ht="15.15" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    </row>
+    <row r="32" ht="15.15" hidden="1" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+    </row>
+    <row r="34" hidden="1" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+    </row>
+    <row r="35" hidden="1" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+    </row>
+    <row r="36" ht="15.15" hidden="1" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+    </row>
+    <row r="38" ht="15.15" hidden="1" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+    </row>
+    <row r="39" ht="15.15" hidden="1" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+    </row>
+    <row r="40" ht="15.15" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+    </row>
+    <row r="41" ht="15.15" hidden="1" spans="1:12">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+    </row>
+    <row r="42" ht="15.15" spans="1:12">
+      <c r="A42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+    </row>
+    <row r="43" ht="15.15" hidden="1" spans="1:12">
+      <c r="A43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+    </row>
+    <row r="45" ht="15.15" hidden="1" spans="1:12">
+      <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+    </row>
+    <row r="46" ht="15.15" spans="1:12">
+      <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+    </row>
+    <row r="47" ht="15.15" hidden="1" spans="1:12">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+    </row>
+    <row r="48" ht="15.15" spans="1:12">
+      <c r="A48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+    </row>
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
+      <c r="A49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+    </row>
+    <row r="50" ht="15.15" spans="1:12">
+      <c r="A50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+    </row>
+    <row r="52" ht="15.15" hidden="1" spans="1:12">
+      <c r="A52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2246,9 +2717,8 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2261,9 +2731,8 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13">
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2276,9 +2745,8 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2291,9 +2759,8 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2306,9 +2773,8 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2321,9 +2787,8 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2336,9 +2801,8 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2351,9 +2815,8 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2366,9 +2829,8 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2381,9 +2843,8 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2396,9 +2857,8 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13">
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2411,9 +2871,8 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13">
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2426,9 +2885,8 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2441,9 +2899,8 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2456,9 +2913,8 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13">
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2471,9 +2927,8 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2486,9 +2941,8 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13">
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2501,9 +2955,8 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2516,9 +2969,8 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13">
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2531,9 +2983,8 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13">
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2546,9 +2997,8 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13">
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2561,9 +3011,8 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2576,9 +3025,8 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2591,9 +3039,8 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2606,9 +3053,8 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13">
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2621,9 +3067,8 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13">
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2636,9 +3081,8 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2651,9 +3095,8 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2666,9 +3109,8 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2681,9 +3123,8 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2696,9 +3137,8 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2711,9 +3151,8 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2726,9 +3165,8 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13">
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2741,9 +3179,8 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13">
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2756,9 +3193,8 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2771,9 +3207,8 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13">
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2786,9 +3221,8 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2801,9 +3235,8 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2816,9 +3249,8 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2831,9 +3263,8 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13">
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2846,9 +3277,8 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13">
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2861,9 +3291,8 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13">
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2876,9 +3305,8 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13">
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2891,9 +3319,8 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2906,9 +3333,8 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13">
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2921,9 +3347,8 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13">
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2936,9 +3361,8 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13">
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2951,9 +3375,8 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13">
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2966,9 +3389,8 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13">
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2981,9 +3403,8 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13">
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2996,9 +3417,8 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13">
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3011,9 +3431,8 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13">
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3026,9 +3445,8 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:13">
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3041,9 +3459,8 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13">
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3056,9 +3473,8 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13">
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3071,9 +3487,8 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:13">
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3086,9 +3501,8 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:13">
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3101,9 +3515,8 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:13">
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3116,9 +3529,8 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="1:13">
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3131,9 +3543,8 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="1:13">
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3146,9 +3557,8 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="1:13">
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3161,9 +3571,8 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="1:13">
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3176,9 +3585,8 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="1:13">
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3191,9 +3599,8 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13">
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3206,9 +3613,8 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="1:13">
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3221,9 +3627,8 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="1:13">
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3236,9 +3641,481 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F52">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="equal" val="ВМВС"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:L55">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Jashera 2021/Jashera 2021.xlsx
+++ b/Jashera 2021/Jashera 2021.xlsx
@@ -67,7 +67,7 @@
     <t>elena.mango2209@gmail.com</t>
   </si>
   <si>
-    <t>Алина Меличева</t>
+    <t>Меличева Алина</t>
   </si>
   <si>
     <t>loumelala@gmail.com</t>
@@ -85,7 +85,7 @@
     <t>arina.makhnyuk@mail.ru</t>
   </si>
   <si>
-    <t>Атаманов Андрей Иванович</t>
+    <t>Атаманов Андрей</t>
   </si>
   <si>
     <t>andriklif@mail.ru</t>
@@ -369,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -397,6 +397,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -404,37 +411,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,7 +426,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,17 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,6 +455,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -488,7 +471,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -505,23 +488,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,13 +549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,91 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +621,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,31 +699,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +758,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -779,69 +842,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -860,148 +860,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,8 +1339,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1378,7 +1378,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" hidden="1" spans="1:12">
+    <row r="2" ht="15.15" hidden="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" hidden="1" spans="1:12">
+    <row r="3" ht="15.15" hidden="1" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" ht="15.15" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" ht="15.15" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" ht="15.15" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="15.15" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" ht="15.15" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" ht="15.15" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" hidden="1" spans="1:12">
+    <row r="26" ht="15.15" hidden="1" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" hidden="1" spans="1:12">
+    <row r="27" ht="15.15" hidden="1" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" hidden="1" spans="1:12">
+    <row r="28" ht="15.15" hidden="1" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" ht="15.15" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" ht="15.15" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" hidden="1" spans="1:12">
+    <row r="34" ht="15.15" hidden="1" spans="1:12">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" hidden="1" spans="1:12">
+    <row r="35" ht="15.15" hidden="1" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" ht="15.15" spans="1:12">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" ht="15.15" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" ht="15.15" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" ht="15.15" spans="1:12">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2718,7 +2718,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" ht="15.15" spans="1:12">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2732,7 +2732,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" ht="15.15" spans="1:12">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2746,7 +2746,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" ht="15.15" spans="1:12">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2760,7 +2760,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" ht="15.15" spans="1:12">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2774,7 +2774,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" ht="15.15" spans="1:12">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2788,7 +2788,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" ht="15.15" spans="1:12">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2802,7 +2802,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" ht="15.15" spans="1:12">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2816,7 +2816,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" ht="15.15" spans="1:12">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2830,7 +2830,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" ht="15.15" spans="1:12">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2844,7 +2844,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" ht="15.15" spans="1:12">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2858,7 +2858,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" ht="15.15" spans="1:12">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2872,7 +2872,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" ht="15.15" spans="1:12">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2886,7 +2886,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" ht="15.15" spans="1:12">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2900,7 +2900,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" ht="15.15" spans="1:12">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2914,7 +2914,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" ht="15.15" spans="1:12">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2928,7 +2928,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" ht="15.15" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2942,7 +2942,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" ht="15.15" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2956,7 +2956,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" ht="15.15" spans="1:12">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2970,7 +2970,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" ht="15.15" spans="1:12">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2984,7 +2984,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" ht="15.15" spans="1:12">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2998,7 +2998,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" ht="15.15" spans="1:12">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3012,7 +3012,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" ht="15.15" spans="1:12">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3026,7 +3026,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" ht="15.15" spans="1:12">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3040,7 +3040,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" ht="15.15" spans="1:12">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3054,7 +3054,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" ht="15.15" spans="1:12">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3068,7 +3068,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" ht="15.15" spans="1:12">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3082,7 +3082,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" ht="15.15" spans="1:12">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3096,7 +3096,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" ht="15.15" spans="1:12">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3110,7 +3110,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" ht="15.15" spans="1:12">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3124,7 +3124,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" ht="15.15" spans="1:12">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3138,7 +3138,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" ht="15.15" spans="1:12">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3152,7 +3152,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" ht="15.15" spans="1:12">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3166,7 +3166,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" ht="15.15" spans="1:12">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3180,7 +3180,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" ht="15.15" spans="1:12">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3194,7 +3194,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" ht="15.15" spans="1:12">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3208,7 +3208,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" ht="15.15" spans="1:12">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3222,7 +3222,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" ht="15.15" spans="1:12">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3236,7 +3236,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" ht="15.15" spans="1:12">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3250,7 +3250,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" ht="15.15" spans="1:12">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3264,7 +3264,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" ht="15.15" spans="1:12">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3278,7 +3278,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" ht="15.15" spans="1:12">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3292,7 +3292,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" ht="15.15" spans="1:12">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3306,7 +3306,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" ht="15.15" spans="1:12">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3320,7 +3320,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" ht="15.15" spans="1:12">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3334,7 +3334,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" ht="15.15" spans="1:12">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3348,7 +3348,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" ht="15.15" spans="1:12">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3362,7 +3362,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" ht="15.15" spans="1:12">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3376,7 +3376,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" ht="15.15" spans="1:12">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3390,7 +3390,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" ht="15.15" spans="1:12">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3404,7 +3404,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" ht="15.15" spans="1:12">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3418,7 +3418,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" ht="15.15" spans="1:12">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3432,7 +3432,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" ht="15.15" spans="1:12">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3446,7 +3446,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" ht="15.15" spans="1:12">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3460,7 +3460,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" ht="15.15" spans="1:12">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3474,7 +3474,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" ht="15.15" spans="1:12">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3488,7 +3488,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" ht="15.15" spans="1:12">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3502,7 +3502,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" ht="15.15" spans="1:12">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3516,7 +3516,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" ht="15.15" spans="1:12">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3530,7 +3530,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" ht="15.15" spans="1:12">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3544,7 +3544,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" ht="15.15" spans="1:12">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3558,7 +3558,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" ht="15.15" spans="1:12">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3572,7 +3572,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" ht="15.15" spans="1:12">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3586,7 +3586,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" ht="15.15" spans="1:12">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3600,7 +3600,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" ht="15.15" spans="1:12">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3614,7 +3614,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" ht="15.15" spans="1:12">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3628,7 +3628,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" ht="15.15" spans="1:12">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3642,7 +3642,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" ht="15.15" spans="1:12">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3656,7 +3656,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" ht="15.15" spans="1:12">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3670,7 +3670,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" ht="15.15" spans="1:12">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3684,7 +3684,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" ht="15.15" spans="1:12">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3698,7 +3698,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" ht="15.15" spans="1:12">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3712,7 +3712,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" ht="15.15" spans="1:12">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3726,7 +3726,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" ht="15.15" spans="1:12">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3740,7 +3740,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" ht="15.15" spans="1:12">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3754,7 +3754,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" ht="15.15" spans="1:12">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3768,7 +3768,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" ht="15.15" spans="1:12">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3782,7 +3782,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" ht="15.15" spans="1:12">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3796,7 +3796,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" ht="15.15" spans="1:12">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3810,7 +3810,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" ht="15.15" spans="1:12">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3824,7 +3824,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" ht="15.15" spans="1:12">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3838,7 +3838,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" ht="15.15" spans="1:12">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3852,7 +3852,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" ht="15.15" spans="1:12">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3866,7 +3866,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" ht="15.15" spans="1:12">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3880,7 +3880,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" ht="15.15" spans="1:12">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3894,7 +3894,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" ht="15.15" spans="1:12">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3908,7 +3908,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" ht="15.15" spans="1:12">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3922,7 +3922,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" ht="15.15" spans="1:12">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3936,7 +3936,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" ht="15.15" spans="1:12">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3950,7 +3950,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" ht="15.15" spans="1:12">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3964,7 +3964,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" ht="15.15" spans="1:12">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3978,7 +3978,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" ht="15.15" spans="1:12">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3992,7 +3992,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" ht="15.15" spans="1:12">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4006,7 +4006,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" ht="15.15" spans="1:12">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4020,7 +4020,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" ht="15.15" spans="1:12">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4034,7 +4034,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" ht="15.15" spans="1:12">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4048,7 +4048,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" ht="15.15" spans="1:12">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4062,7 +4062,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" ht="15.15" spans="1:12">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4076,7 +4076,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" ht="15.15" spans="1:12">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4090,7 +4090,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" ht="15.15" spans="1:12">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>

--- a/Jashera 2021/Jashera 2021.xlsx
+++ b/Jashera 2021/Jashera 2021.xlsx
@@ -4,20 +4,808 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Информация для бумаг" sheetId="1" r:id="rId1"/>
+    <sheet name="Марш 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Маршлист внешняя сторона" sheetId="3" r:id="rId3"/>
+    <sheet name="Cписок для приказа" sheetId="4" r:id="rId4"/>
+    <sheet name="Ведомость документов" sheetId="5" r:id="rId5"/>
+    <sheet name="Предварительный список" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$52</definedName>
+    <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
+    <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
+    <definedName name="_ftn1" localSheetId="2">'Маршлист внешняя сторона'!$H$29</definedName>
+    <definedName name="_ftnref1" localSheetId="2">'Маршлист внешняя сторона'!$H$26</definedName>
+    <definedName name="class" localSheetId="3">[3]Справочник!$H$2:$H$14</definedName>
+    <definedName name="dist" localSheetId="3">[3]Справочник!$F$2:$F$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="361">
+  <si>
+    <t xml:space="preserve">Список участников Весенней полевой практики </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сроки </t>
+  </si>
+  <si>
+    <t>Маршрут</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург - Толмачево- д.Ящера- д.Кемка- д. Ящера -Толмачево- Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Справка</t>
+  </si>
+  <si>
+    <t>Прививка</t>
+  </si>
+  <si>
+    <t>Расписка клещевая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа </t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Мобильный телефон</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Родители</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Телефон родителей</t>
+  </si>
+  <si>
+    <t>Паспортные данные</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владыченко </t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>Дыбенко 21-3-34</t>
+  </si>
+  <si>
+    <t>Владыченко Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>40 18 201787</t>
+  </si>
+  <si>
+    <t>30.11.2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глазунов </t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t>Белышева 8-1-519</t>
+  </si>
+  <si>
+    <t>Глазунова Юлия Павловна</t>
+  </si>
+  <si>
+    <t>05.10.2003</t>
+  </si>
+  <si>
+    <t>Зиглина</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>Антоновна</t>
+  </si>
+  <si>
+    <t>Коммуны, 42-1-33</t>
+  </si>
+  <si>
+    <t>Антропова Ася Юрьевна</t>
+  </si>
+  <si>
+    <t>II-МЮ 864474</t>
+  </si>
+  <si>
+    <t>15.06.2005</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
+  </si>
+  <si>
+    <t>Кириллович</t>
+  </si>
+  <si>
+    <t>Каменноостровский 69-29</t>
+  </si>
+  <si>
+    <t>Иванова Мария Владимировна</t>
+  </si>
+  <si>
+    <t>II-АК 520285</t>
+  </si>
+  <si>
+    <t>19.07.2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ильин </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Егор </t>
+  </si>
+  <si>
+    <t>Всеволожск, Березовая Роща 2-39</t>
+  </si>
+  <si>
+    <t>Ильин Дмитрий Вадимович</t>
+  </si>
+  <si>
+    <t>17.06.2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карасева </t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Геннадьевна</t>
+  </si>
+  <si>
+    <t>наб. Обводного кан. 53-7</t>
+  </si>
+  <si>
+    <t>Чернецова Екатерина Андреевна</t>
+  </si>
+  <si>
+    <t>I-АК 890189</t>
+  </si>
+  <si>
+    <t>28.01.2006</t>
+  </si>
+  <si>
+    <t>Кириллов</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Светлановский 78-46</t>
+  </si>
+  <si>
+    <t>Кириллова Елезавета Викторовна</t>
+  </si>
+  <si>
+    <t>I-АК 625344</t>
+  </si>
+  <si>
+    <t>12.12.2006</t>
+  </si>
+  <si>
+    <t>Коврегина</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t>Валерьевна</t>
+  </si>
+  <si>
+    <t>Будапештская, 17-2-162</t>
+  </si>
+  <si>
+    <t>Коврегина Галина Михайловна</t>
+  </si>
+  <si>
+    <t>I-АК 875307</t>
+  </si>
+  <si>
+    <t>13.10.2005</t>
+  </si>
+  <si>
+    <t>Малашкина</t>
+  </si>
+  <si>
+    <t>Эльшановна</t>
+  </si>
+  <si>
+    <t>Сертолово, Молодежная, 3-37</t>
+  </si>
+  <si>
+    <t>Малашкина Екатерина Ивановна</t>
+  </si>
+  <si>
+    <t>10.01.2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельникова </t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>Вадимовна</t>
+  </si>
+  <si>
+    <t>Лужская 14-2-78</t>
+  </si>
+  <si>
+    <t>Черепова Наталья Валерьевна</t>
+  </si>
+  <si>
+    <t>25.07.2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мурашко </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей </t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Шлиссельбургский пр. 17/2-101</t>
+  </si>
+  <si>
+    <t>Мурашко Иван Викторович</t>
+  </si>
+  <si>
+    <t>I-АК 888099</t>
+  </si>
+  <si>
+    <t>10.12.2005</t>
+  </si>
+  <si>
+    <t>Нужин</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Мулложонович</t>
+  </si>
+  <si>
+    <t>Наличная 37-1-4</t>
+  </si>
+  <si>
+    <t>Нужина Юлия Андреевна</t>
+  </si>
+  <si>
+    <t>II-АК 520410</t>
+  </si>
+  <si>
+    <t>04.08.2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лев </t>
+  </si>
+  <si>
+    <t>Михайлович</t>
+  </si>
+  <si>
+    <t>Авиаконструкторов 44-65</t>
+  </si>
+  <si>
+    <t>Романова Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>II-АК 877941</t>
+  </si>
+  <si>
+    <t>31.05.2005</t>
+  </si>
+  <si>
+    <t>Сайчик</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>Кораблестроителей, 39-831</t>
+  </si>
+  <si>
+    <t>Сайчик Татьяна Борисовна</t>
+  </si>
+  <si>
+    <t>II-АК 520873</t>
+  </si>
+  <si>
+    <t>22.09.2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимова </t>
+  </si>
+  <si>
+    <t>Алена</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>Витебская 10-14</t>
+  </si>
+  <si>
+    <t>Пасько Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>30.05.2004</t>
+  </si>
+  <si>
+    <t>Руководитель</t>
+  </si>
+  <si>
+    <t>Хайтов Вадим Михайлович</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хаместитель </t>
+  </si>
+  <si>
+    <t>Михайлов Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Срок сдачи бумаг</t>
+  </si>
+  <si>
+    <t>Год проведения мероприятия</t>
+  </si>
+  <si>
+    <t>Резервный состав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ермолаев </t>
+  </si>
+  <si>
+    <t>Святослав</t>
+  </si>
+  <si>
+    <t>Павлович</t>
+  </si>
+  <si>
+    <t>Дальневосточный 69-3-85</t>
+  </si>
+  <si>
+    <t>Ермолаев Павел Николаевич</t>
+  </si>
+  <si>
+    <t>11.12.2001</t>
+  </si>
+  <si>
+    <t>Катасонова</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Красное Село, Гитчинская 4-1-15</t>
+  </si>
+  <si>
+    <t>Ронжин Андрей Васильевич</t>
+  </si>
+  <si>
+    <t>20.11.2001</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>4016724641</t>
+  </si>
+  <si>
+    <t>08.01.2003</t>
+  </si>
+  <si>
+    <t>Малашичева</t>
+  </si>
+  <si>
+    <t>Елезавета</t>
+  </si>
+  <si>
+    <t>Егоровна</t>
+  </si>
+  <si>
+    <t>Энгельса 41-23</t>
+  </si>
+  <si>
+    <t>Малашичева Анн Борисовна</t>
+  </si>
+  <si>
+    <t>08.10.2003</t>
+  </si>
+  <si>
+    <t>Нематова</t>
+  </si>
+  <si>
+    <t>Рената</t>
+  </si>
+  <si>
+    <t>Батировна</t>
+  </si>
+  <si>
+    <t>Пушкин, 4 линия 43А</t>
+  </si>
+  <si>
+    <t>Нематова Анна Евгеньевна</t>
+  </si>
+  <si>
+    <t>05.03.2004</t>
+  </si>
+  <si>
+    <t>СПИСОК ГРУППЫ</t>
+  </si>
+  <si>
+    <t>ПЛАН ПОХОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия Имя </t>
+  </si>
+  <si>
+    <t>Год рожд</t>
+  </si>
+  <si>
+    <t>Школа</t>
+  </si>
+  <si>
+    <t>Домашний адрес</t>
+  </si>
+  <si>
+    <t>Разрешение  врача</t>
+  </si>
+  <si>
+    <t>Роспись в получении Инструктажа по технике безопасности</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Участки маршрута</t>
+  </si>
+  <si>
+    <t>Км</t>
+  </si>
+  <si>
+    <t>Способы передвижения</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Подписи о получении инструктажа по технике безопасности находятся в  журнале по проведению инструктажей</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>СПб-Толмачево-Ящера</t>
+  </si>
+  <si>
+    <t>ж/д,п</t>
+  </si>
+  <si>
+    <t>1.05-5.05</t>
+  </si>
+  <si>
+    <t>Стационарный лагерь окр Ящера</t>
+  </si>
+  <si>
+    <t>пеш</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>Хозяйственный день</t>
+  </si>
+  <si>
+    <t>7.05-8.05</t>
+  </si>
+  <si>
+    <t>Маршрут Ящера - Кемка-Мшинская-Ящера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пеш, </t>
+  </si>
+  <si>
+    <t>8.05 -12.05</t>
+  </si>
+  <si>
+    <t>пеш, ж/д</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>Ящера-Толмачево - СПб</t>
+  </si>
+  <si>
+    <t>Приготовление пищи на костре под контролем руководителей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рук. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">пом.рук </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Все участники застрахованы от несчастного случая и  умеют плавать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>№ страхового договора</t>
+  </si>
+  <si>
+    <t>Руководитель группы ________________/_____Хайтов В.М.____/</t>
+  </si>
+  <si>
+    <t>Всего с активным способом передвижения_______________</t>
+  </si>
+  <si>
+    <t>Руководитель группы ________________/Хайтов В.М../</t>
+  </si>
+  <si>
+    <t>Цели и задачи мероприятия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ПО ОБРАЗОВАНИЮ </t>
+  </si>
+  <si>
+    <t>Проведение учебной полевой практики для учащихся 1-4 года обучения. Освоение навыков самообеспечения в природе. Знакомство с биоразнообразием юга Ленинградской области (растительный и животный мир, почвенные условия, ландшафты).</t>
+  </si>
+  <si>
+    <t>ПРАВИТЕЛЬСТВА  САНКТ-ПЕТЕРБУРГА</t>
+  </si>
+  <si>
+    <t>МАРШРУТНЫЙ ЛИСТ № ______</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ТМ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t>__экспедиция__________</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание программы </t>
+  </si>
+  <si>
+    <t>(степенной поход, экспедиция, экскурсия, УТС, соревнования)</t>
+  </si>
+  <si>
+    <t>1.05.</t>
+  </si>
+  <si>
+    <t>Переезд на электричке, пеший переход, постановка стационарного лагеря</t>
+  </si>
+  <si>
+    <t>Группа туристов ОУ  ГБНОУ «СПБГДТЮ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в составе </t>
+  </si>
+  <si>
+    <t xml:space="preserve">учащихся и 2 руководителей  следует по </t>
+  </si>
+  <si>
+    <t>Окрестности д.Ящера. Радиальные выходы. Экскурсии в поймы рек Ящера и Луга, орнитологические маршруты. Сбор гербария, описание почвенных разрезов.</t>
+  </si>
+  <si>
+    <t>маршруту:</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>ночлегами в полевых условиях</t>
+  </si>
+  <si>
+    <t>Хоздень</t>
+  </si>
+  <si>
+    <t>в сроки c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по </t>
+  </si>
+  <si>
+    <t>Пешеий выход с постановкой временного лагеря в окрестностях деревни Кемка; Возвращение в базовый лагерь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель группы  </t>
+  </si>
+  <si>
+    <t>8.05-12.05</t>
+  </si>
+  <si>
+    <t>Удостоверение Инструктора детско-юношеского туризма №_349/10_ от 21 апреля 2011  г.</t>
+  </si>
+  <si>
+    <t>Выдано организацией    ГОУ «Балтийский берег»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заместитель руководителя   </t>
+  </si>
+  <si>
+    <t>д.Ящера — ст.Толмачево — Санкт-Петербург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маршрутный лист выдан: ГБНОУ «СПБГДТЮ» </t>
+  </si>
+  <si>
+    <t>ЭБЦ «Крестовский остров»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   _________________/_Ляндзберг А.Р.__  </t>
+  </si>
+  <si>
+    <t>РЕКОМЕНДАЦИИ МКК:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М.П. </t>
+  </si>
+  <si>
+    <t>Приказ по __________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№______от _____________ </t>
+  </si>
+  <si>
+    <t>г.</t>
+  </si>
+  <si>
+    <t>ОТМЕТКИ НА МАРШРУТЕ:</t>
+  </si>
+  <si>
+    <t>Отметка МКК ____________              ________/_________________</t>
+  </si>
+  <si>
+    <t>«____»__________</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Штамп МКК </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>Список участников полевой практики Лаборатории экологии морского бентоса (гидробиологии)</t>
+  </si>
+  <si>
+    <t>с 01.05.19 по 12.05.19</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>адресс</t>
+  </si>
+  <si>
+    <t>Михайлов Дмитрий Алексеевч</t>
+  </si>
+  <si>
+    <t>Заместитель</t>
+  </si>
+  <si>
+    <t>Ведомость документов</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>№ справки о здоровье</t>
+  </si>
+  <si>
+    <t>Наличие прививки от эцефалита</t>
+  </si>
+  <si>
+    <t>Номер расписки от родителей о клещевом энцефалите</t>
+  </si>
+  <si>
+    <t>Страховой договор от несчастного случая №</t>
+  </si>
+  <si>
+    <t>SYS1522117271</t>
+  </si>
   <si>
     <t>Ваше Имя и Фамилия</t>
   </si>
@@ -362,19 +1150,34 @@
   </si>
   <si>
     <t>angelinaureva80@gmail.com</t>
+  </si>
+  <si>
+    <t>Сайчик Мария</t>
+  </si>
+  <si>
+    <t>brednesy9@gmail.com</t>
+  </si>
+  <si>
+    <t>Софья Зиглина</t>
+  </si>
+  <si>
+    <t>sonyaziglina@yandex.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="180" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +1199,128 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -405,6 +1330,65 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,9 +1410,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,16 +1424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,53 +1448,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -525,22 +1455,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,7 +1470,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +1536,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +1584,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,121 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,30 +1662,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -759,6 +1692,183 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -769,15 +1879,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +1894,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,192 +1939,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,8 +2107,306 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="71" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="71" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="54">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
     <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
@@ -1028,47 +2415,52 @@
     <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
     <cellStyle name="Денежный" xfId="6" builtinId="4"/>
     <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный_общий список" xfId="8"/>
+    <cellStyle name="40% — Акцент6" xfId="9" builtinId="51"/>
+    <cellStyle name="Процент" xfId="10" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="11" builtinId="34"/>
+    <cellStyle name="Итого" xfId="12" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="13" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="14" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="17" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="18" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="19" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="20" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="21" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="22" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="24"/>
+    <cellStyle name="Заголовок 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="26" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="27" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="28" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="29" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="30" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="31" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="32" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="33" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="34" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="35" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="36" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="37" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="38" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="39" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="40" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="41" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="42" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="43" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="44" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="45" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="46" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="47" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="48" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="49" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="50" builtinId="52"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="51"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="52"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="53"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1077,6 +2469,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Шаблон"/>
+      <sheetName val="Охрана"/>
+      <sheetName val="Пожертвования"/>
+      <sheetName val="Справочник"/>
+      <sheetName val="Восстановл_Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Шаблон"/>
+      <sheetName val="Охрана"/>
+      <sheetName val="Пожертвования"/>
+      <sheetName val="Справочник"/>
+      <sheetName val="Восстановл_Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Шаблон"/>
+      <sheetName val="Охрана"/>
+      <sheetName val="Пожертвования"/>
+      <sheetName val="Справочник"/>
+      <sheetName val="Восстановл_Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,11 +2791,3370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
+  <dimension ref="A1:X36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="8" style="97"/>
+    <col min="2" max="2" width="28.8240740740741" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.7314814814815" style="97"/>
+    <col min="4" max="4" width="13.1203703703704" style="97"/>
+    <col min="5" max="5" width="21.4259259259259" style="97"/>
+    <col min="6" max="6" width="12.8148148148148" style="97"/>
+    <col min="7" max="7" width="9.22222222222222" style="97"/>
+    <col min="8" max="8" width="8.96296296296296" style="97"/>
+    <col min="9" max="9" width="12.0833333333333" style="98"/>
+    <col min="10" max="10" width="19.4814814814815" style="97"/>
+    <col min="11" max="11" width="28.1851851851852" style="97"/>
+    <col min="12" max="12" width="31.4259259259259" style="97"/>
+    <col min="13" max="13" width="18.5740740740741" style="97" customWidth="1"/>
+    <col min="14" max="14" width="14.1574074074074" style="97"/>
+    <col min="15" max="15" width="14.5462962962963" style="97" customWidth="1"/>
+    <col min="16" max="16" width="18.8240740740741" style="97"/>
+    <col min="17" max="17" width="14.1574074074074" style="97"/>
+    <col min="18" max="16384" width="8" style="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="100">
+        <v>43586</v>
+      </c>
+      <c r="D2" s="100">
+        <v>43597</v>
+      </c>
+      <c r="E2" s="101"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="101"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="97">
+        <v>1</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="104">
+        <v>1</v>
+      </c>
+      <c r="F5" s="104">
+        <v>1</v>
+      </c>
+      <c r="G5" s="105">
+        <v>40</v>
+      </c>
+      <c r="H5" s="105">
+        <v>343</v>
+      </c>
+      <c r="I5" s="112">
+        <v>8</v>
+      </c>
+      <c r="J5" s="104">
+        <v>9213166451</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="104">
+        <v>9213166451</v>
+      </c>
+      <c r="O5" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:16">
+      <c r="A6" s="97">
+        <v>2</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="104">
+        <v>2</v>
+      </c>
+      <c r="F6" s="104">
+        <v>1</v>
+      </c>
+      <c r="G6" s="104">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>610</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6" s="104">
+        <v>2330700</v>
+      </c>
+      <c r="K6" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="104">
+        <v>2330700</v>
+      </c>
+      <c r="O6" s="115">
+        <v>4017913579</v>
+      </c>
+      <c r="P6" s="114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="1:16">
+      <c r="A7" s="97">
+        <v>3</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="104">
+        <v>3</v>
+      </c>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104">
+        <v>35</v>
+      </c>
+      <c r="H7" s="106">
+        <v>628</v>
+      </c>
+      <c r="I7" s="106">
+        <v>7</v>
+      </c>
+      <c r="J7" s="104">
+        <v>9219451925</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="104">
+        <v>9219451925</v>
+      </c>
+      <c r="O7" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="1:16">
+      <c r="A8" s="97">
+        <v>4</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="104">
+        <v>4</v>
+      </c>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106">
+        <v>23</v>
+      </c>
+      <c r="H8" s="106">
+        <v>56</v>
+      </c>
+      <c r="I8" s="106">
+        <v>6</v>
+      </c>
+      <c r="J8" s="106">
+        <v>9219312294</v>
+      </c>
+      <c r="K8" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="106">
+        <v>9219312294</v>
+      </c>
+      <c r="O8" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="1:16">
+      <c r="A9" s="97">
+        <v>5</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="104">
+        <v>5</v>
+      </c>
+      <c r="F9" s="104">
+        <v>1</v>
+      </c>
+      <c r="G9" s="104">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>265</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="107">
+        <v>9213640331</v>
+      </c>
+      <c r="K9" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="107">
+        <v>9213640331</v>
+      </c>
+      <c r="O9" s="115">
+        <v>4118924402</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="1:16">
+      <c r="A10" s="97">
+        <v>6</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="104">
+        <v>6</v>
+      </c>
+      <c r="F10" s="104">
+        <v>1</v>
+      </c>
+      <c r="G10" s="104">
+        <v>1</v>
+      </c>
+      <c r="H10" s="106">
+        <v>205</v>
+      </c>
+      <c r="I10" s="106">
+        <v>7</v>
+      </c>
+      <c r="J10" s="104">
+        <v>9112179395</v>
+      </c>
+      <c r="K10" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="104">
+        <v>9112179395</v>
+      </c>
+      <c r="O10" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" spans="1:16">
+      <c r="A11" s="97">
+        <v>7</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="104">
+        <v>7</v>
+      </c>
+      <c r="F11" s="104">
+        <v>1</v>
+      </c>
+      <c r="G11" s="105">
+        <v>1</v>
+      </c>
+      <c r="H11" s="106">
+        <v>241</v>
+      </c>
+      <c r="I11" s="106">
+        <v>5</v>
+      </c>
+      <c r="J11" s="104">
+        <v>9119422619</v>
+      </c>
+      <c r="K11" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="104">
+        <v>9119422619</v>
+      </c>
+      <c r="O11" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="1:16">
+      <c r="A12" s="97">
+        <v>8</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="104">
+        <v>8</v>
+      </c>
+      <c r="F12" s="106">
+        <v>1</v>
+      </c>
+      <c r="G12" s="106">
+        <v>9</v>
+      </c>
+      <c r="H12" s="106">
+        <v>292</v>
+      </c>
+      <c r="I12" s="106">
+        <v>7</v>
+      </c>
+      <c r="J12" s="106">
+        <v>9117243003</v>
+      </c>
+      <c r="K12" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="106">
+        <v>9117243003</v>
+      </c>
+      <c r="O12" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="116" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" spans="1:16">
+      <c r="A13" s="97">
+        <v>9</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="104">
+        <v>9</v>
+      </c>
+      <c r="F13" s="106">
+        <v>1</v>
+      </c>
+      <c r="G13" s="106">
+        <v>36</v>
+      </c>
+      <c r="H13" s="106">
+        <v>2</v>
+      </c>
+      <c r="I13" s="106">
+        <v>8</v>
+      </c>
+      <c r="J13" s="106">
+        <v>9213328446</v>
+      </c>
+      <c r="K13" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="106">
+        <v>9213328446</v>
+      </c>
+      <c r="O13" s="115">
+        <v>4017956995</v>
+      </c>
+      <c r="P13" s="116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" spans="1:16">
+      <c r="A14" s="97">
+        <v>10</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="104">
+        <v>10</v>
+      </c>
+      <c r="F14" s="106">
+        <v>1</v>
+      </c>
+      <c r="G14" s="106">
+        <v>5</v>
+      </c>
+      <c r="H14" s="106">
+        <v>179</v>
+      </c>
+      <c r="I14" s="106">
+        <v>9</v>
+      </c>
+      <c r="J14" s="106">
+        <v>9219702680</v>
+      </c>
+      <c r="K14" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="106">
+        <v>9219702680</v>
+      </c>
+      <c r="O14" s="115">
+        <v>4017817040</v>
+      </c>
+      <c r="P14" s="116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" ht="14.4" spans="1:16">
+      <c r="A15" s="97">
+        <v>11</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="104">
+        <v>11</v>
+      </c>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106">
+        <v>17</v>
+      </c>
+      <c r="H15" s="106">
+        <v>571</v>
+      </c>
+      <c r="I15" s="106">
+        <v>6</v>
+      </c>
+      <c r="J15" s="106">
+        <v>9219742848</v>
+      </c>
+      <c r="K15" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="106">
+        <v>9219742848</v>
+      </c>
+      <c r="O15" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" ht="14.4" spans="1:16">
+      <c r="A16" s="97">
+        <v>12</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="104">
+        <v>12</v>
+      </c>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="106">
+        <v>9213827100</v>
+      </c>
+      <c r="K16" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="106">
+        <v>9213827100</v>
+      </c>
+      <c r="O16" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="116" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="1:16">
+      <c r="A17" s="97">
+        <v>13</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="104">
+        <v>13</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>635</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" s="107">
+        <v>9052608831</v>
+      </c>
+      <c r="K17" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="107">
+        <v>9052608831</v>
+      </c>
+      <c r="O17" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="118" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" spans="1:16">
+      <c r="A18" s="97">
+        <v>14</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="104">
+        <v>14</v>
+      </c>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104">
+        <v>32</v>
+      </c>
+      <c r="H18" s="106">
+        <v>586</v>
+      </c>
+      <c r="I18" s="106">
+        <v>6</v>
+      </c>
+      <c r="J18" s="104">
+        <v>9818417041</v>
+      </c>
+      <c r="K18" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="104">
+        <v>9818417041</v>
+      </c>
+      <c r="O18" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" spans="1:16">
+      <c r="A19" s="97">
+        <v>15</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="104">
+        <v>15</v>
+      </c>
+      <c r="F19" s="106">
+        <v>1</v>
+      </c>
+      <c r="G19" s="106">
+        <v>13</v>
+      </c>
+      <c r="H19" s="106">
+        <v>225</v>
+      </c>
+      <c r="I19" s="106">
+        <v>8</v>
+      </c>
+      <c r="J19" s="106">
+        <v>9117966505</v>
+      </c>
+      <c r="K19" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="106">
+        <v>9117966505</v>
+      </c>
+      <c r="O19" s="115">
+        <v>4018085917</v>
+      </c>
+      <c r="P19" s="116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" s="101"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="108">
+        <v>89217427984</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="108">
+        <v>89112525171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="100">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="108">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" ht="14.4" spans="2:16">
+      <c r="B31" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="106">
+        <v>498</v>
+      </c>
+      <c r="I31" s="106">
+        <v>10</v>
+      </c>
+      <c r="J31" s="97">
+        <v>9218898182</v>
+      </c>
+      <c r="K31" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="97">
+        <v>9217936706</v>
+      </c>
+      <c r="O31" s="105">
+        <v>4015426630</v>
+      </c>
+      <c r="P31" s="119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="2:24">
+      <c r="B32" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="106">
+        <v>380</v>
+      </c>
+      <c r="I32" s="106">
+        <v>10</v>
+      </c>
+      <c r="J32" s="104">
+        <v>9117453522</v>
+      </c>
+      <c r="K32" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="120"/>
+      <c r="N32" s="104">
+        <v>9643862813</v>
+      </c>
+      <c r="O32" s="105">
+        <v>4015417949</v>
+      </c>
+      <c r="P32" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+    </row>
+    <row r="33" ht="14.4" spans="2:16">
+      <c r="B33" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="106">
+        <v>56</v>
+      </c>
+      <c r="I33" s="106">
+        <v>10</v>
+      </c>
+      <c r="J33" s="104">
+        <v>9818944840</v>
+      </c>
+      <c r="K33" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="104">
+        <v>9119422619</v>
+      </c>
+      <c r="O33" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="P33" s="122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" ht="14.4" spans="2:16">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34">
+        <v>222</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>9319678985</v>
+      </c>
+      <c r="K34" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34">
+        <v>9217669143</v>
+      </c>
+      <c r="O34" s="123">
+        <v>4017901890</v>
+      </c>
+      <c r="P34" s="116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" ht="14.4" spans="2:16">
+      <c r="B35" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35">
+        <v>225</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35" s="104">
+        <v>9111959536</v>
+      </c>
+      <c r="K35" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="N35" s="104">
+        <v>9112207532</v>
+      </c>
+      <c r="O35" s="105">
+        <v>4018034409</v>
+      </c>
+      <c r="P35" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="8:16">
+      <c r="H36" s="98"/>
+      <c r="I36" s="97"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.37037037037037" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.0555555555556" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.90740740740741" style="6"/>
+    <col min="4" max="4" width="11.1759259259259" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.58333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.0092592592593" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.4537037037037" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.037037037037" style="6" customWidth="1"/>
+    <col min="9" max="9" width="3.75925925925926" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.91666666666667" style="6"/>
+    <col min="11" max="11" width="17.9166666666667" style="6" customWidth="1"/>
+    <col min="12" max="12" width="4.93518518518519" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.6018518518519" style="6" customWidth="1"/>
+    <col min="14" max="256" width="8.30555555555556" style="6"/>
+    <col min="257" max="16384" width="8" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="43" customHeight="1" spans="1:13">
+      <c r="A2" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" s="41" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A3" s="55">
+        <v>1</v>
+      </c>
+      <c r="B3" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
+        <v>Владыченко  Елизавета</v>
+      </c>
+      <c r="C3" s="57" t="str">
+        <f>'Информация для бумаг'!P5</f>
+        <v>30.11.2004</v>
+      </c>
+      <c r="D3" s="16">
+        <f>'Информация для бумаг'!H5</f>
+        <v>343</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'Информация для бумаг'!I5</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="39" t="str">
+        <f>'Информация для бумаг'!K5</f>
+        <v>Дыбенко 21-3-34</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="60">
+        <v>1</v>
+      </c>
+      <c r="J3" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="88">
+        <v>117</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="89"/>
+    </row>
+    <row r="4" s="41" customFormat="1" ht="26.4" spans="1:14">
+      <c r="A4" s="60">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
+        <v>Глазунов  Александр</v>
+      </c>
+      <c r="C4" s="57" t="str">
+        <f>'Информация для бумаг'!P6</f>
+        <v>05.10.2003</v>
+      </c>
+      <c r="D4" s="16">
+        <f>'Информация для бумаг'!H6</f>
+        <v>610</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'Информация для бумаг'!I6</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="39" t="str">
+        <f>'Информация для бумаг'!K6</f>
+        <v>Белышева 8-1-519</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="55">
+        <v>2</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="89"/>
+    </row>
+    <row r="5" s="41" customFormat="1" ht="15.6" spans="1:14">
+      <c r="A5" s="55">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
+        <v>Зиглина София</v>
+      </c>
+      <c r="C5" s="57" t="str">
+        <f>'Информация для бумаг'!P7</f>
+        <v>15.06.2005</v>
+      </c>
+      <c r="D5" s="16">
+        <f>'Информация для бумаг'!H7</f>
+        <v>628</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Информация для бумаг'!I7</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="39" t="str">
+        <f>'Информация для бумаг'!K7</f>
+        <v>Коммуны, 42-1-33</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="60">
+        <v>3</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="89"/>
+    </row>
+    <row r="6" s="41" customFormat="1" ht="26.4" spans="1:14">
+      <c r="A6" s="60">
+        <v>4</v>
+      </c>
+      <c r="B6" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
+        <v>Иванов Тимофей</v>
+      </c>
+      <c r="C6" s="57" t="str">
+        <f>'Информация для бумаг'!P8</f>
+        <v>19.07.2006</v>
+      </c>
+      <c r="D6" s="16">
+        <f>'Информация для бумаг'!H8</f>
+        <v>56</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Информация для бумаг'!I8</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="39" t="str">
+        <f>'Информация для бумаг'!K8</f>
+        <v>Каменноостровский 69-29</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60">
+        <v>4</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="89"/>
+    </row>
+    <row r="7" s="41" customFormat="1" ht="26.4" spans="1:14">
+      <c r="A7" s="55">
+        <v>5</v>
+      </c>
+      <c r="B7" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
+        <v>Ильин  Егор </v>
+      </c>
+      <c r="C7" s="57" t="str">
+        <f>'Информация для бумаг'!P9</f>
+        <v>17.06.2004</v>
+      </c>
+      <c r="D7" s="16">
+        <f>'Информация для бумаг'!H9</f>
+        <v>265</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Информация для бумаг'!I9</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="62" t="str">
+        <f>'Информация для бумаг'!K9</f>
+        <v>Всеволожск, Березовая Роща 2-39</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="55">
+        <v>5</v>
+      </c>
+      <c r="J7" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="89"/>
+    </row>
+    <row r="8" s="41" customFormat="1" ht="24" spans="1:14">
+      <c r="A8" s="60">
+        <v>6</v>
+      </c>
+      <c r="B8" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
+        <v>Карасева  Ольга</v>
+      </c>
+      <c r="C8" s="57" t="str">
+        <f>'Информация для бумаг'!P10</f>
+        <v>28.01.2006</v>
+      </c>
+      <c r="D8" s="16">
+        <f>'Информация для бумаг'!H10</f>
+        <v>205</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Информация для бумаг'!I10</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="39" t="str">
+        <f>'Информация для бумаг'!K10</f>
+        <v>наб. Обводного кан. 53-7</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="60">
+        <v>6</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="88">
+        <v>117</v>
+      </c>
+      <c r="M8" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="92"/>
+    </row>
+    <row r="9" s="41" customFormat="1" spans="1:13">
+      <c r="A9" s="55">
+        <v>7</v>
+      </c>
+      <c r="B9" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
+        <v>Кириллов Дмитрий</v>
+      </c>
+      <c r="C9" s="57" t="str">
+        <f>'Информация для бумаг'!P11</f>
+        <v>12.12.2006</v>
+      </c>
+      <c r="D9" s="16">
+        <f>'Информация для бумаг'!H11</f>
+        <v>241</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'Информация для бумаг'!I11</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="39" t="str">
+        <f>'Информация для бумаг'!K11</f>
+        <v>Светлановский 78-46</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+    </row>
+    <row r="10" s="41" customFormat="1" ht="24" spans="1:13">
+      <c r="A10" s="60">
+        <v>8</v>
+      </c>
+      <c r="B10" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
+        <v>Коврегина Галина</v>
+      </c>
+      <c r="C10" s="57" t="str">
+        <f>'Информация для бумаг'!P12</f>
+        <v>13.10.2005</v>
+      </c>
+      <c r="D10" s="16">
+        <f>'Информация для бумаг'!H12</f>
+        <v>292</v>
+      </c>
+      <c r="E10" s="8">
+        <f>'Информация для бумаг'!I12</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="39" t="str">
+        <f>'Информация для бумаг'!K12</f>
+        <v>Будапештская, 17-2-162</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" s="41" customFormat="1" ht="24" spans="1:13">
+      <c r="A11" s="55">
+        <v>9</v>
+      </c>
+      <c r="B11" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
+        <v>Малашкина София</v>
+      </c>
+      <c r="C11" s="57" t="str">
+        <f>'Информация для бумаг'!P13</f>
+        <v>10.01.2004</v>
+      </c>
+      <c r="D11" s="16">
+        <f>'Информация для бумаг'!H13</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <f>'Информация для бумаг'!I13</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="39" t="str">
+        <f>'Информация для бумаг'!K13</f>
+        <v>Сертолово, Молодежная, 3-37</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" s="41" customFormat="1" spans="1:13">
+      <c r="A12" s="60">
+        <v>10</v>
+      </c>
+      <c r="B12" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
+        <v>Мельникова  Арина</v>
+      </c>
+      <c r="C12" s="57" t="str">
+        <f>'Информация для бумаг'!P14</f>
+        <v>25.07.2003</v>
+      </c>
+      <c r="D12" s="16">
+        <f>'Информация для бумаг'!H14</f>
+        <v>179</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'Информация для бумаг'!I14</f>
+        <v>9</v>
+      </c>
+      <c r="F12" s="39" t="str">
+        <f>'Информация для бумаг'!K14</f>
+        <v>Лужская 14-2-78</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" s="41" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A13" s="55">
+        <v>11</v>
+      </c>
+      <c r="B13" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
+        <v>Мурашко  Сергей </v>
+      </c>
+      <c r="C13" s="57" t="str">
+        <f>'Информация для бумаг'!P15</f>
+        <v>10.12.2005</v>
+      </c>
+      <c r="D13" s="16">
+        <f>'Информация для бумаг'!H15</f>
+        <v>571</v>
+      </c>
+      <c r="E13" s="8">
+        <f>'Информация для бумаг'!I15</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="39" t="str">
+        <f>'Информация для бумаг'!K15</f>
+        <v>Шлиссельбургский пр. 17/2-101</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" s="41" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A14" s="60">
+        <v>12</v>
+      </c>
+      <c r="B14" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
+        <v>Нужин Илья</v>
+      </c>
+      <c r="C14" s="57" t="str">
+        <f>'Информация для бумаг'!P16</f>
+        <v>04.08.2006</v>
+      </c>
+      <c r="D14" s="16">
+        <f>'Информация для бумаг'!H16</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <f>'Информация для бумаг'!I16</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="39" t="str">
+        <f>'Информация для бумаг'!K16</f>
+        <v>Наличная 37-1-4</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" s="41" customFormat="1" ht="24" spans="1:13">
+      <c r="A15" s="55">
+        <v>13</v>
+      </c>
+      <c r="B15" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
+        <v>Романов  Лев </v>
+      </c>
+      <c r="C15" s="57" t="str">
+        <f>'Информация для бумаг'!P17</f>
+        <v>31.05.2005</v>
+      </c>
+      <c r="D15" s="16">
+        <f>'Информация для бумаг'!H17</f>
+        <v>635</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'Информация для бумаг'!I17</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="39" t="str">
+        <f>'Информация для бумаг'!K17</f>
+        <v>Авиаконструкторов 44-65</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="95"/>
+    </row>
+    <row r="16" s="41" customFormat="1" ht="23" customHeight="1" spans="1:13">
+      <c r="A16" s="60">
+        <v>14</v>
+      </c>
+      <c r="B16" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
+        <v>Сайчик Мария</v>
+      </c>
+      <c r="C16" s="57" t="str">
+        <f>'Информация для бумаг'!P18</f>
+        <v>22.09.2006</v>
+      </c>
+      <c r="D16" s="63">
+        <f>'Информация для бумаг'!H18</f>
+        <v>586</v>
+      </c>
+      <c r="E16" s="8">
+        <f>'Информация для бумаг'!I18</f>
+        <v>6</v>
+      </c>
+      <c r="F16" s="39" t="str">
+        <f>'Информация для бумаг'!K18</f>
+        <v>Кораблестроителей, 39-831</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+    </row>
+    <row r="17" s="41" customFormat="1" spans="1:13">
+      <c r="A17" s="55">
+        <v>15</v>
+      </c>
+      <c r="B17" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
+        <v>Евдокимова  Алена</v>
+      </c>
+      <c r="C17" s="57" t="str">
+        <f>'Информация для бумаг'!P19</f>
+        <v>30.05.2004</v>
+      </c>
+      <c r="D17" s="16">
+        <f>'Информация для бумаг'!H19</f>
+        <v>225</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'Информация для бумаг'!I19</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="39" t="str">
+        <f>'Информация для бумаг'!K19</f>
+        <v>Витебская 10-14</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+    </row>
+    <row r="18" s="41" customFormat="1" spans="1:13">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+    </row>
+    <row r="19" s="41" customFormat="1" spans="1:13">
+      <c r="A19" s="55"/>
+      <c r="B19" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+    </row>
+    <row r="20" s="41" customFormat="1" spans="1:13">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B31," ",'Информация для бумаг'!C31)</f>
+        <v>Ермолаев  Святослав</v>
+      </c>
+      <c r="C20" s="57" t="str">
+        <f>'Информация для бумаг'!P31</f>
+        <v>11.12.2001</v>
+      </c>
+      <c r="D20" s="65">
+        <f>'Информация для бумаг'!H31</f>
+        <v>498</v>
+      </c>
+      <c r="E20" s="8">
+        <f>'Информация для бумаг'!I31</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="69" t="str">
+        <f>'Информация для бумаг'!K31</f>
+        <v>Дальневосточный 69-3-85</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" s="41" customFormat="1" ht="20.4" spans="1:13">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B32," ",'Информация для бумаг'!C32)</f>
+        <v>Катасонова Марина</v>
+      </c>
+      <c r="C21" s="57" t="str">
+        <f>'Информация для бумаг'!P32</f>
+        <v>20.11.2001</v>
+      </c>
+      <c r="D21" s="65">
+        <f>'Информация для бумаг'!H32</f>
+        <v>380</v>
+      </c>
+      <c r="E21" s="8">
+        <f>'Информация для бумаг'!I32</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="69" t="str">
+        <f>'Информация для бумаг'!K32</f>
+        <v>Красное Село, Гитчинская 4-1-15</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+    </row>
+    <row r="22" s="41" customFormat="1" spans="1:13">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B33," ",'Информация для бумаг'!C33)</f>
+        <v>Кириллов Олег</v>
+      </c>
+      <c r="C22" s="57" t="str">
+        <f>'Информация для бумаг'!P33</f>
+        <v>08.01.2003</v>
+      </c>
+      <c r="D22" s="65">
+        <f>'Информация для бумаг'!H33</f>
+        <v>56</v>
+      </c>
+      <c r="E22" s="8">
+        <f>'Информация для бумаг'!I33</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="69" t="str">
+        <f>'Информация для бумаг'!K33</f>
+        <v>Светлановский 78-46</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+    </row>
+    <row r="23" s="41" customFormat="1" spans="1:13">
+      <c r="A23" s="60"/>
+      <c r="B23" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B34," ",'Информация для бумаг'!C34)</f>
+        <v>Малашичева Елезавета</v>
+      </c>
+      <c r="C23" s="57" t="str">
+        <f>'Информация для бумаг'!P34</f>
+        <v>08.10.2003</v>
+      </c>
+      <c r="D23" s="65">
+        <f>'Информация для бумаг'!H34</f>
+        <v>222</v>
+      </c>
+      <c r="E23" s="8">
+        <f>'Информация для бумаг'!I34</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="69" t="str">
+        <f>'Информация для бумаг'!K34</f>
+        <v>Энгельса 41-23</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="61"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+    </row>
+    <row r="24" s="41" customFormat="1" spans="1:13">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
+        <v>Нематова Рената</v>
+      </c>
+      <c r="C24" s="57" t="str">
+        <f>'Информация для бумаг'!P35</f>
+        <v>05.03.2004</v>
+      </c>
+      <c r="D24" s="65">
+        <f>'Информация для бумаг'!H35</f>
+        <v>225</v>
+      </c>
+      <c r="E24" s="8">
+        <f>'Информация для бумаг'!I35</f>
+        <v>8</v>
+      </c>
+      <c r="F24" s="69" t="str">
+        <f>'Информация для бумаг'!K35</f>
+        <v>Пушкин, 4 линия 43А</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" s="41" customFormat="1" spans="1:13">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" s="41" customFormat="1" spans="1:13">
+      <c r="A26" s="55"/>
+      <c r="B26" s="70" t="str">
+        <f>'Информация для бумаг'!C23</f>
+        <v>Хайтов Вадим Михайлович</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="60"/>
+      <c r="B27" s="8" t="str">
+        <f>'Информация для бумаг'!C24</f>
+        <v>Михайлов Дмитрий Алексеевич</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:13">
+      <c r="A28" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A29" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="8:8">
+      <c r="H31" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="33" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="34" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="35" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="36" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="37" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="38" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="39" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="40" s="6" customFormat="1" ht="23.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H3:H28"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="6" customWidth="1"/>
+    <col min="2" max="6" width="8" style="6"/>
+    <col min="7" max="7" width="23.6388888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" style="6" customWidth="1"/>
+    <col min="9" max="9" width="3.89814814814815" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.48148148148148" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8" style="6"/>
+    <col min="12" max="12" width="13.1851851851852" style="6"/>
+    <col min="13" max="13" width="9.90740740740741" style="6"/>
+    <col min="14" max="14" width="8" style="6"/>
+    <col min="15" max="15" width="1.63888888888889" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+      <c r="A1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:14">
+      <c r="A2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" spans="1:7">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:14">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" ht="18" spans="1:14">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A8" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="H8" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:10">
+      <c r="A9" s="25"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="H9" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="6">
+        <f>COUNT('Информация для бумаг'!A5:A19)</f>
+        <v>15</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:14">
+      <c r="A10" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="H10" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="44" t="str">
+        <f>'Информация для бумаг'!C3</f>
+        <v>Санкт-Петербург - Толмачево- д.Ящера- д.Кемка- д. Ящера -Толмачево- Санкт-Петербург</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="H11" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="46">
+        <f>DAYS360('Информация для бумаг'!C2,'Информация для бумаг'!D2)-1</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:12">
+      <c r="A12" s="36">
+        <v>6.05</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="H12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="47">
+        <f>'Информация для бумаг'!C2</f>
+        <v>43586</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="49">
+        <f>'Информация для бумаг'!D2</f>
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" spans="1:6">
+      <c r="A13" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:14">
+      <c r="A14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="H14" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="48" t="str">
+        <f>'Информация для бумаг'!C23</f>
+        <v>Хайтов Вадим Михайлович</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="33"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="K15" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="6">
+        <f>'Информация для бумаг'!F23</f>
+        <v>89217427984</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" spans="1:8">
+      <c r="A16" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="H16" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="H17" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:14">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="H19" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="48" t="str">
+        <f>'Информация для бумаг'!C24</f>
+        <v>Михайлов Дмитрий Алексеевич</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="33">
+        <v>12.05</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="K20" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="6">
+        <f>'Информация для бумаг'!F24</f>
+        <v>89112525171</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" spans="8:14">
+      <c r="H22" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" spans="8:14">
+      <c r="H23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="25" ht="15.6" spans="8:13">
+      <c r="H25" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" s="50">
+        <f>'Информация для бумаг'!C26</f>
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:9">
+      <c r="A26" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="8:8">
+      <c r="H28" s="40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="8:12">
+      <c r="H29" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="6">
+        <f>'Информация для бумаг'!C27</f>
+        <v>2019</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:8">
+      <c r="A30" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" ht="15.6" spans="8:8">
+      <c r="H31" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="8:12">
+      <c r="H32" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="6">
+        <f>'Информация для бумаг'!C27</f>
+        <v>2019</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="8:8">
+      <c r="H33" s="42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F15"/>
+    <mergeCell ref="B16:F19"/>
+  </mergeCells>
+  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3.36111111111111" style="6"/>
+    <col min="2" max="2" width="35.7222222222222" style="6" customWidth="1"/>
+    <col min="3" max="4" width="8" style="6"/>
+    <col min="5" max="5" width="10.9074074074074" style="6"/>
+    <col min="6" max="6" width="31.4259259259259" style="6"/>
+    <col min="7" max="16384" width="8" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5," ",'Информация для бумаг'!D5)</f>
+        <v>Владыченко  Елизавета Михайловна</v>
+      </c>
+      <c r="C5" s="16">
+        <f>'Информация для бумаг'!H5</f>
+        <v>343</v>
+      </c>
+      <c r="D5" s="16">
+        <f>'Информация для бумаг'!I5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Информация для бумаг'!J5</f>
+        <v>9213166451</v>
+      </c>
+      <c r="F5" s="17" t="str">
+        <f>'Информация для бумаг'!K5</f>
+        <v>Дыбенко 21-3-34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6," ",'Информация для бумаг'!D6)</f>
+        <v>Глазунов  Александр Дмитриевич</v>
+      </c>
+      <c r="C6" s="16">
+        <f>'Информация для бумаг'!H6</f>
+        <v>610</v>
+      </c>
+      <c r="D6" s="16">
+        <f>'Информация для бумаг'!I6</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Информация для бумаг'!J6</f>
+        <v>2330700</v>
+      </c>
+      <c r="F6" s="17" t="str">
+        <f>'Информация для бумаг'!K6</f>
+        <v>Белышева 8-1-519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7," ",'Информация для бумаг'!D7)</f>
+        <v>Зиглина София Антоновна</v>
+      </c>
+      <c r="C7" s="16">
+        <f>'Информация для бумаг'!H7</f>
+        <v>628</v>
+      </c>
+      <c r="D7" s="16">
+        <f>'Информация для бумаг'!I7</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Информация для бумаг'!J7</f>
+        <v>9219451925</v>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f>'Информация для бумаг'!K7</f>
+        <v>Коммуны, 42-1-33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8," ",'Информация для бумаг'!D8)</f>
+        <v>Иванов Тимофей Кириллович</v>
+      </c>
+      <c r="C8" s="16">
+        <f>'Информация для бумаг'!H8</f>
+        <v>56</v>
+      </c>
+      <c r="D8" s="16">
+        <f>'Информация для бумаг'!I8</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Информация для бумаг'!J8</f>
+        <v>9219312294</v>
+      </c>
+      <c r="F8" s="17" t="str">
+        <f>'Информация для бумаг'!K8</f>
+        <v>Каменноостровский 69-29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9," ",'Информация для бумаг'!D9)</f>
+        <v>Ильин  Егор  Дмитриевич</v>
+      </c>
+      <c r="C9" s="16">
+        <f>'Информация для бумаг'!H9</f>
+        <v>265</v>
+      </c>
+      <c r="D9" s="16">
+        <f>'Информация для бумаг'!I9</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'Информация для бумаг'!J9</f>
+        <v>9213640331</v>
+      </c>
+      <c r="F9" s="17" t="str">
+        <f>'Информация для бумаг'!K9</f>
+        <v>Всеволожск, Березовая Роща 2-39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10," ",'Информация для бумаг'!D10)</f>
+        <v>Карасева  Ольга Геннадьевна</v>
+      </c>
+      <c r="C10" s="16">
+        <f>'Информация для бумаг'!H10</f>
+        <v>205</v>
+      </c>
+      <c r="D10" s="16">
+        <f>'Информация для бумаг'!I10</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <f>'Информация для бумаг'!J10</f>
+        <v>9112179395</v>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f>'Информация для бумаг'!K10</f>
+        <v>наб. Обводного кан. 53-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11," ",'Информация для бумаг'!D11)</f>
+        <v>Кириллов Дмитрий Андреевич</v>
+      </c>
+      <c r="C11" s="16">
+        <f>'Информация для бумаг'!H11</f>
+        <v>241</v>
+      </c>
+      <c r="D11" s="16">
+        <f>'Информация для бумаг'!I11</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <f>'Информация для бумаг'!J11</f>
+        <v>9119422619</v>
+      </c>
+      <c r="F11" s="17" t="str">
+        <f>'Информация для бумаг'!K11</f>
+        <v>Светлановский 78-46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12," ",'Информация для бумаг'!D12)</f>
+        <v>Коврегина Галина Валерьевна</v>
+      </c>
+      <c r="C12" s="16">
+        <f>'Информация для бумаг'!H12</f>
+        <v>292</v>
+      </c>
+      <c r="D12" s="16">
+        <f>'Информация для бумаг'!I12</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'Информация для бумаг'!J12</f>
+        <v>9117243003</v>
+      </c>
+      <c r="F12" s="17" t="str">
+        <f>'Информация для бумаг'!K12</f>
+        <v>Будапештская, 17-2-162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13," ",'Информация для бумаг'!D13)</f>
+        <v>Малашкина София Эльшановна</v>
+      </c>
+      <c r="C13" s="16">
+        <f>'Информация для бумаг'!H13</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="16">
+        <f>'Информация для бумаг'!I13</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <f>'Информация для бумаг'!J13</f>
+        <v>9213328446</v>
+      </c>
+      <c r="F13" s="17" t="str">
+        <f>'Информация для бумаг'!K13</f>
+        <v>Сертолово, Молодежная, 3-37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14," ",'Информация для бумаг'!D14)</f>
+        <v>Мельникова  Арина Вадимовна</v>
+      </c>
+      <c r="C14" s="16">
+        <f>'Информация для бумаг'!H14</f>
+        <v>179</v>
+      </c>
+      <c r="D14" s="16">
+        <f>'Информация для бумаг'!I14</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="8">
+        <f>'Информация для бумаг'!J14</f>
+        <v>9219702680</v>
+      </c>
+      <c r="F14" s="17" t="str">
+        <f>'Информация для бумаг'!K14</f>
+        <v>Лужская 14-2-78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15," ",'Информация для бумаг'!D15)</f>
+        <v>Мурашко  Сергей  Иванович</v>
+      </c>
+      <c r="C15" s="16">
+        <f>'Информация для бумаг'!H15</f>
+        <v>571</v>
+      </c>
+      <c r="D15" s="16">
+        <f>'Информация для бумаг'!I15</f>
+        <v>6</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'Информация для бумаг'!J15</f>
+        <v>9219742848</v>
+      </c>
+      <c r="F15" s="17" t="str">
+        <f>'Информация для бумаг'!K15</f>
+        <v>Шлиссельбургский пр. 17/2-101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16," ",'Информация для бумаг'!D16)</f>
+        <v>Нужин Илья Мулложонович</v>
+      </c>
+      <c r="C16" s="16">
+        <f>'Информация для бумаг'!H16</f>
+        <v>30</v>
+      </c>
+      <c r="D16" s="16">
+        <f>'Информация для бумаг'!I16</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="8">
+        <f>'Информация для бумаг'!J16</f>
+        <v>9213827100</v>
+      </c>
+      <c r="F16" s="17" t="str">
+        <f>'Информация для бумаг'!K16</f>
+        <v>Наличная 37-1-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17," ",'Информация для бумаг'!D17)</f>
+        <v>Романов  Лев  Михайлович</v>
+      </c>
+      <c r="C17" s="16">
+        <f>'Информация для бумаг'!H17</f>
+        <v>635</v>
+      </c>
+      <c r="D17" s="16">
+        <f>'Информация для бумаг'!I17</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'Информация для бумаг'!J17</f>
+        <v>9052608831</v>
+      </c>
+      <c r="F17" s="17" t="str">
+        <f>'Информация для бумаг'!K17</f>
+        <v>Авиаконструкторов 44-65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18," ",'Информация для бумаг'!D18)</f>
+        <v>Сайчик Мария Владимировна</v>
+      </c>
+      <c r="C18" s="16">
+        <f>'Информация для бумаг'!H18</f>
+        <v>586</v>
+      </c>
+      <c r="D18" s="16">
+        <f>'Информация для бумаг'!I18</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="8">
+        <f>'Информация для бумаг'!J18</f>
+        <v>9818417041</v>
+      </c>
+      <c r="F18" s="17" t="str">
+        <f>'Информация для бумаг'!K18</f>
+        <v>Кораблестроителей, 39-831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19," ",'Информация для бумаг'!D19)</f>
+        <v>Евдокимова  Алена Игоревна</v>
+      </c>
+      <c r="C19" s="16">
+        <f>'Информация для бумаг'!H19</f>
+        <v>225</v>
+      </c>
+      <c r="D19" s="16">
+        <f>'Информация для бумаг'!I19</f>
+        <v>8</v>
+      </c>
+      <c r="E19" s="8">
+        <f>'Информация для бумаг'!J19</f>
+        <v>9117966505</v>
+      </c>
+      <c r="F19" s="17" t="str">
+        <f>'Информация для бумаг'!K19</f>
+        <v>Витебская 10-14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8" style="6"/>
+    <col min="2" max="2" width="16.9074074074074" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.3611111111111" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.7314814814815" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.1203703703704" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.1759259259259" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.2685185185185" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" ht="82.5" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>40</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>33</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:8">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="1:8">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" spans="1:8">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12">
+        <v>36</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="1:8">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" spans="1:8">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="10">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" spans="1:8">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="14">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="10">
+        <v>13</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>44</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="10">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
+        <v>32</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="1:8">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="10">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1354,22 +6168,22 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1378,24 +6192,24 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="15.15" hidden="1" spans="1:12">
+    <row r="2" ht="15.15" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1404,24 +6218,24 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" ht="15.15" hidden="1" spans="1:12">
+    <row r="3" ht="15.15" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1430,24 +6244,24 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="15.15" hidden="1" spans="1:12">
+    <row r="4" ht="15.15" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1456,24 +6270,24 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" ht="15.15" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1484,22 +6298,22 @@
     </row>
     <row r="6" ht="15.15" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1508,24 +6322,24 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" ht="15.15" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1534,24 +6348,24 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" ht="15.15" hidden="1" spans="1:12">
+    <row r="8" ht="15.15" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1562,22 +6376,22 @@
     </row>
     <row r="9" ht="15.15" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1586,24 +6400,24 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" ht="15.15" hidden="1" spans="1:12">
+    <row r="10" ht="15.15" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1612,24 +6426,24 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" ht="15.15" hidden="1" spans="1:12">
+    <row r="11" ht="15.15" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1640,22 +6454,22 @@
     </row>
     <row r="12" ht="15.15" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1664,24 +6478,24 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" ht="15.15" hidden="1" spans="1:12">
+    <row r="13" ht="15.15" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1690,24 +6504,24 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" ht="15.15" hidden="1" spans="1:12">
+    <row r="14" ht="15.15" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1718,22 +6532,22 @@
     </row>
     <row r="15" ht="15.15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1742,24 +6556,24 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" ht="15.15" hidden="1" spans="1:12">
+    <row r="16" ht="15.15" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1768,24 +6582,24 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" ht="15.15" hidden="1" spans="1:12">
+    <row r="17" ht="15.15" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1796,22 +6610,22 @@
     </row>
     <row r="18" ht="15.15" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1820,24 +6634,24 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" ht="15.15" hidden="1" spans="1:12">
+    <row r="19" ht="15.15" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1848,22 +6662,22 @@
     </row>
     <row r="20" ht="15.15" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1872,24 +6686,24 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" ht="15.15" hidden="1" spans="1:12">
+    <row r="21" ht="15.15" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1900,22 +6714,22 @@
     </row>
     <row r="22" ht="15.15" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>297</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1926,22 +6740,22 @@
     </row>
     <row r="23" ht="15.15" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1950,24 +6764,24 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" ht="15.15" hidden="1" spans="1:12">
+    <row r="24" ht="15.15" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1978,22 +6792,22 @@
     </row>
     <row r="25" ht="15.15" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2002,24 +6816,24 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" ht="15.15" hidden="1" spans="1:12">
+    <row r="26" ht="15.15" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2028,24 +6842,24 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" ht="15.15" hidden="1" spans="1:12">
+    <row r="27" ht="15.15" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2054,24 +6868,24 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" ht="15.15" hidden="1" spans="1:12">
+    <row r="28" ht="15.15" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>308</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2080,24 +6894,24 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" ht="15.15" hidden="1" spans="1:12">
+    <row r="29" ht="15.15" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>310</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2108,22 +6922,22 @@
     </row>
     <row r="30" ht="15.15" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2134,22 +6948,22 @@
     </row>
     <row r="31" ht="15.15" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2158,24 +6972,24 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" ht="15.15" hidden="1" spans="1:12">
+    <row r="32" ht="15.15" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2186,22 +7000,22 @@
     </row>
     <row r="33" ht="15.15" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2210,24 +7024,24 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" ht="15.15" hidden="1" spans="1:12">
+    <row r="34" ht="15.15" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2236,24 +7050,24 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" ht="15.15" hidden="1" spans="1:12">
+    <row r="35" ht="15.15" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2262,24 +7076,24 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" ht="15.15" hidden="1" spans="1:12">
+    <row r="36" ht="15.15" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2290,22 +7104,22 @@
     </row>
     <row r="37" ht="15.15" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2314,24 +7128,24 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="15.15" hidden="1" spans="1:12">
+    <row r="38" ht="15.15" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2340,24 +7154,24 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" ht="15.15" hidden="1" spans="1:12">
+    <row r="39" ht="15.15" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2368,22 +7182,22 @@
     </row>
     <row r="40" ht="15.15" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2392,24 +7206,24 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" ht="15.15" hidden="1" spans="1:12">
+    <row r="41" ht="15.15" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2420,22 +7234,22 @@
     </row>
     <row r="42" ht="15.15" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2444,24 +7258,24 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" ht="15.15" hidden="1" spans="1:12">
+    <row r="43" ht="15.15" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2472,22 +7286,22 @@
     </row>
     <row r="44" ht="15.15" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2496,24 +7310,24 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" ht="15.15" hidden="1" spans="1:12">
+    <row r="45" ht="15.15" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2524,22 +7338,22 @@
     </row>
     <row r="46" ht="15.15" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2548,24 +7362,24 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" ht="15.15" hidden="1" spans="1:12">
+    <row r="47" ht="15.15" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2576,22 +7390,22 @@
     </row>
     <row r="48" ht="15.15" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2600,24 +7414,24 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" ht="15.15" hidden="1" spans="1:12">
+    <row r="49" ht="15.15" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2628,22 +7442,22 @@
     </row>
     <row r="50" ht="15.15" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2654,22 +7468,22 @@
     </row>
     <row r="51" ht="15.15" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D51" s="3">
         <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2678,24 +7492,24 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" ht="15.15" hidden="1" spans="1:12">
+    <row r="52" ht="15.15" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2705,12 +7519,24 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" ht="15.15" spans="1:12">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="A53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2719,12 +7545,24 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" ht="15.15" spans="1:12">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="A54" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4105,17 +8943,6 @@
       <c r="L152" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F52">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="ВМВС"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A2:L55">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Jashera 2021/Jashera 2021.xlsx
+++ b/Jashera 2021/Jashera 2021.xlsx
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Список для страховки'!$A$1:$F$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Данные детей'!$B$1:$Z$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Участники!$A$1:$X$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Участники!$A$1:$Y$19</definedName>
     <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
     <definedName name="_ftn1" localSheetId="7">'Маршлист внешняя сторона'!$H$29</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="960">
   <si>
     <t>ОБОРУДОВАНИЕ</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
       <t>бутерброды</t>
     </r>
     <r>
@@ -2983,6 +2989,9 @@
     <t>Немчинов Владимир Михайлович</t>
   </si>
   <si>
+    <t>Общий сбор</t>
+  </si>
+  <si>
     <t>Клещевая расписка</t>
   </si>
   <si>
@@ -2996,6 +3005,9 @@
   </si>
   <si>
     <t xml:space="preserve">Шилонцев </t>
+  </si>
+  <si>
+    <t>Алексанрович</t>
   </si>
 </sst>
 </file>
@@ -3003,12 +3015,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
     <numFmt numFmtId="180" formatCode="dd\.mmm"/>
     <numFmt numFmtId="181" formatCode="[$-419]d\ mm\ yyyy;@"/>
     <numFmt numFmtId="182" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
@@ -3178,14 +3190,12 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -3193,22 +3203,13 @@
       <u/>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
-      <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3218,28 +3219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3252,17 +3233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3284,8 +3264,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3296,14 +3297,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3323,8 +3316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3339,12 +3340,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3353,10 +3355,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
@@ -3398,13 +3405,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3422,127 +3459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3560,7 +3477,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3572,7 +3531,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3753,6 +3760,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3769,35 +3791,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3826,6 +3824,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3840,173 +3856,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4017,12 +4024,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4031,7 +4038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4351,16 +4358,10 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="184" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4806,600 +4807,600 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="157" customWidth="1"/>
-    <col min="2" max="2" width="29" style="157" customWidth="1"/>
-    <col min="3" max="3" width="14.7037037037037" style="157" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="157" customWidth="1"/>
-    <col min="5" max="5" width="17.8611111111111" style="157" customWidth="1"/>
-    <col min="6" max="16384" width="7.86111111111111" style="157" customWidth="1"/>
+    <col min="1" max="1" width="4.13888888888889" style="153" customWidth="1"/>
+    <col min="2" max="2" width="29" style="153" customWidth="1"/>
+    <col min="3" max="3" width="14.7037037037037" style="153" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="153" customWidth="1"/>
+    <col min="5" max="5" width="17.8611111111111" style="153" customWidth="1"/>
+    <col min="6" max="16384" width="7.86111111111111" style="153" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="155" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="158"/>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="162" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="158" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159" t="s">
+      <c r="C3" s="157"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="157">
+      <c r="F4" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="157">
+      <c r="F5" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="E6" s="159" t="s">
+      <c r="C6" s="157"/>
+      <c r="E6" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="157">
+      <c r="F6" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159" t="s">
+      <c r="C7" s="157"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="157">
+      <c r="F7" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="157" t="s">
+      <c r="C8" s="157"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="157">
+      <c r="F8" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="157" t="s">
+      <c r="C9" s="157"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="157">
+      <c r="F9" s="153">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="E10" s="157" t="s">
+      <c r="C10" s="157"/>
+      <c r="E10" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="157">
+      <c r="F10" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="159"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="155"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="E12" s="164" t="s">
+      <c r="C12" s="157"/>
+      <c r="E12" s="160" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="E13" s="157" t="s">
+      <c r="C13" s="157"/>
+      <c r="E13" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="157">
+      <c r="F13" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="161"/>
+      <c r="C14" s="157"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="E15" s="159" t="s">
+      <c r="C15" s="157"/>
+      <c r="E15" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="157" t="s">
+      <c r="F15" s="153" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="161"/>
+      <c r="C16" s="157"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="161"/>
+      <c r="C17" s="157"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="157"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="161"/>
+      <c r="C19" s="157"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="165"/>
-      <c r="B20" s="160" t="s">
+      <c r="A20" s="161"/>
+      <c r="B20" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="161"/>
+      <c r="C20" s="157"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="165"/>
-      <c r="B21" s="160" t="s">
+      <c r="A21" s="161"/>
+      <c r="B21" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="157"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="165"/>
-      <c r="B22" s="160" t="s">
+      <c r="A22" s="161"/>
+      <c r="B22" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="157"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="157"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="161"/>
+      <c r="C24" s="157"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="161"/>
+      <c r="C25" s="157"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="160" t="s">
+      <c r="B26" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="161"/>
+      <c r="C26" s="157"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="161"/>
+      <c r="C27" s="157"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="161"/>
+      <c r="C28" s="157"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="161"/>
+      <c r="C29" s="157"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="161"/>
+      <c r="C30" s="157"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="161"/>
+      <c r="C31" s="157"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="161"/>
+      <c r="C32" s="157"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="161"/>
+      <c r="C33" s="157"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="161"/>
+      <c r="C34" s="157"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="160" t="s">
+      <c r="B35" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="161"/>
+      <c r="C35" s="157"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="161"/>
+      <c r="C36" s="157"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="160" t="s">
+      <c r="B37" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="161"/>
+      <c r="C37" s="157"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="161"/>
+      <c r="C38" s="157"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="161"/>
+      <c r="C39" s="157"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="160" t="s">
+      <c r="B40" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="161"/>
+      <c r="C40" s="157"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="161"/>
+      <c r="C41" s="157"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="160" t="s">
+      <c r="B42" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="161"/>
+      <c r="C42" s="157"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="160" t="s">
+      <c r="B43" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="161"/>
+      <c r="C43" s="157"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="160" t="s">
+      <c r="B44" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="161"/>
+      <c r="C44" s="157"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="160" t="s">
+      <c r="B45" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="161"/>
+      <c r="C45" s="157"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="160" t="s">
+      <c r="B46" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="161"/>
+      <c r="C46" s="157"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="161"/>
+      <c r="C47" s="157"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="161"/>
+      <c r="C48" s="157"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="161"/>
+      <c r="C49" s="157"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="161"/>
+      <c r="C50" s="157"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="161"/>
+      <c r="C51" s="157"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="161"/>
+      <c r="C52" s="157"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="161"/>
+      <c r="C53" s="157"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="161"/>
+      <c r="C54" s="157"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="160" t="s">
+      <c r="B55" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="161"/>
+      <c r="C55" s="157"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="160" t="s">
+      <c r="B56" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="161"/>
+      <c r="C56" s="157"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="160" t="s">
+      <c r="B57" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="161"/>
+      <c r="C57" s="157"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="160" t="s">
+      <c r="B58" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="161"/>
+      <c r="C58" s="157"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="161" t="s">
+      <c r="B59" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="161"/>
+      <c r="C59" s="157"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="160" t="s">
+      <c r="B60" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="161"/>
+      <c r="C60" s="157"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="160" t="s">
+      <c r="B61" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="161"/>
+      <c r="C61" s="157"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="160" t="s">
+      <c r="B62" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="161"/>
+      <c r="C62" s="157"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="160" t="s">
+      <c r="B63" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="161"/>
+      <c r="C63" s="157"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="160" t="s">
+      <c r="B64" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="161"/>
+      <c r="C64" s="157"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="160" t="s">
+      <c r="B65" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="161"/>
+      <c r="C65" s="157"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="160" t="s">
+      <c r="B66" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="161"/>
+      <c r="C66" s="157"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="161" t="s">
+      <c r="B67" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="161"/>
+      <c r="C67" s="157"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="161"/>
+      <c r="C68" s="157"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="160" t="s">
+      <c r="B69" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="161"/>
+      <c r="C69" s="157"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="160" t="s">
+      <c r="B70" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="161"/>
+      <c r="C70" s="157"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="161"/>
+      <c r="C71" s="157"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="160" t="s">
+      <c r="B72" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="161"/>
+      <c r="C72" s="157"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="160" t="s">
+      <c r="B73" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="161"/>
+      <c r="C73" s="157"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="160" t="s">
+      <c r="B74" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="161"/>
+      <c r="C74" s="157"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="160" t="s">
+      <c r="B75" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="161"/>
+      <c r="C75" s="157"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="160" t="s">
+      <c r="B76" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="161"/>
+      <c r="C76" s="157"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="163" t="s">
+      <c r="B77" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="161"/>
+      <c r="C77" s="157"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="161" t="s">
+      <c r="B78" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="161"/>
+      <c r="C78" s="157"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="162" t="s">
+      <c r="B80" s="158" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="157" t="s">
+      <c r="B81" s="153" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="157" t="s">
+      <c r="B82" s="153" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="157" t="s">
+      <c r="B83" s="153" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="153" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="153" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="157" t="s">
+      <c r="B86" s="153" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="157" t="s">
+      <c r="B87" s="153" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8481,7 +8482,7 @@
       <c r="C2" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>38478</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8501,7 +8502,7 @@
       <c r="C3" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>40195</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -8521,7 +8522,7 @@
       <c r="C4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>39606</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -8541,7 +8542,7 @@
       <c r="C5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>38553</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -8561,7 +8562,7 @@
       <c r="C6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>38137</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -8581,7 +8582,7 @@
       <c r="C7" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>38051</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -8601,7 +8602,7 @@
       <c r="C8" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>38434</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -8621,7 +8622,7 @@
       <c r="C9" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>39554</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -8641,7 +8642,7 @@
       <c r="C10" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>40070</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -8661,7 +8662,7 @@
       <c r="C11" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>39892</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8681,7 +8682,7 @@
       <c r="C12" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>38518</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -8701,7 +8702,7 @@
       <c r="C13" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>38070</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -8721,7 +8722,7 @@
       <c r="C14" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>39581</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8741,7 +8742,7 @@
       <c r="C15" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>39331</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -8761,7 +8762,7 @@
       <c r="C16" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>38801</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -8801,7 +8802,7 @@
       <c r="C18" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>39485</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -8821,7 +8822,7 @@
       <c r="C19" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>39166</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -8835,7 +8836,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
@@ -8849,7 +8850,7 @@
       <c r="C21" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>39875</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -8869,7 +8870,7 @@
       <c r="C22" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>39035</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -8889,7 +8890,7 @@
       <c r="C23" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>39617</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -8909,7 +8910,7 @@
       <c r="C24" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>39038</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -8929,7 +8930,7 @@
       <c r="C25" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>38174</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -8949,7 +8950,7 @@
       <c r="C26" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>38262</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -8969,7 +8970,7 @@
       <c r="C27" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>39448</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -8989,7 +8990,7 @@
       <c r="C28" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>39585</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -9009,7 +9010,7 @@
       <c r="C29" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>39367</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -9029,7 +9030,7 @@
       <c r="C30" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>39154</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -9049,7 +9050,7 @@
       <c r="C31" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>39766</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -9069,7 +9070,7 @@
       <c r="C32" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>39649</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -9089,7 +9090,7 @@
       <c r="C33" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <v>39338</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -9109,7 +9110,7 @@
       <c r="C34" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>38629</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -9129,7 +9130,7 @@
       <c r="C35" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>39707</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -9149,7 +9150,7 @@
       <c r="C36" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="7">
         <v>38766</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -9169,7 +9170,7 @@
       <c r="C37" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>37823</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -9189,7 +9190,7 @@
       <c r="C38" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>37703</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -9209,7 +9210,7 @@
       <c r="C39" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="7">
         <v>39656</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -9229,7 +9230,7 @@
       <c r="C40" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>39409</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -9249,7 +9250,7 @@
       <c r="C41" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>39053</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -9269,7 +9270,7 @@
       <c r="C42" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <v>39313</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -9289,7 +9290,7 @@
       <c r="C43" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="7">
         <v>39367</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -9309,7 +9310,7 @@
       <c r="C44" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="7">
         <v>39402</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -9329,7 +9330,7 @@
       <c r="C45" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="7">
         <v>39169</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -9349,7 +9350,7 @@
       <c r="C46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="7">
         <v>38558</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -10301,7 +10302,7 @@
       <c r="J2" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>38478</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -10367,7 +10368,7 @@
       <c r="J3" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>40195</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -10431,7 +10432,7 @@
       <c r="J4" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>38558</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -10497,7 +10498,7 @@
       <c r="J5" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>39875</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -10554,7 +10555,7 @@
       <c r="G6" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>6</v>
       </c>
       <c r="I6" s="1">
@@ -10563,7 +10564,7 @@
       <c r="J6" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>39606</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -10629,7 +10630,7 @@
       <c r="J7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>38553</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -10695,7 +10696,7 @@
       <c r="J8" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>39035</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -10761,7 +10762,7 @@
       <c r="J9" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>38137</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -10823,7 +10824,7 @@
       <c r="J10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>38051</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -10889,7 +10890,7 @@
       <c r="J11" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>38434</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -10955,7 +10956,7 @@
       <c r="J12" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>39617</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -11021,7 +11022,7 @@
       <c r="J13" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>39038</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -11087,7 +11088,7 @@
       <c r="J14" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>38174</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -11153,7 +11154,7 @@
       <c r="J15" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
         <v>39554</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -11219,7 +11220,7 @@
       <c r="J16" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <v>38262</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -11285,7 +11286,7 @@
       <c r="J17" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>39448</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -11351,7 +11352,7 @@
       <c r="J18" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>40070</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -11417,7 +11418,7 @@
       <c r="J19" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>39585</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -11481,7 +11482,7 @@
       <c r="J20" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="7">
         <v>39367</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -11547,7 +11548,7 @@
       <c r="J21" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>39154</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -11613,7 +11614,7 @@
       <c r="J22" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="7">
         <v>39766</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -11679,7 +11680,7 @@
       <c r="J23" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="7">
         <v>39892</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -11745,7 +11746,7 @@
       <c r="J24" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="7">
         <v>38518</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -11811,7 +11812,7 @@
       <c r="J25" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="7">
         <v>39649</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -11877,7 +11878,7 @@
       <c r="J26" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="7">
         <v>38070</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -11943,7 +11944,7 @@
       <c r="J27" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="7">
         <v>39338</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -12009,7 +12010,7 @@
       <c r="J28" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="7">
         <v>38629</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -12075,7 +12076,7 @@
       <c r="J29" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="7">
         <v>39707</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -12141,7 +12142,7 @@
       <c r="J30" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="7">
         <v>38766</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -12207,7 +12208,7 @@
       <c r="J31" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="7">
         <v>39581</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -12273,7 +12274,7 @@
       <c r="J32" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="7">
         <v>37823</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -12337,7 +12338,7 @@
       <c r="J33" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="7">
         <v>37703</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -12403,7 +12404,7 @@
       <c r="J34" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="7">
         <v>39656</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -12469,7 +12470,7 @@
       <c r="J35" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="7">
         <v>39409</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -12535,7 +12536,7 @@
       <c r="J36" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="7">
         <v>39053</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -12601,7 +12602,7 @@
       <c r="J37" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="7">
         <v>39331</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -12667,7 +12668,7 @@
       <c r="J38" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="7">
         <v>39313</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -12733,7 +12734,7 @@
       <c r="J39" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="7">
         <v>39367</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -12799,7 +12800,7 @@
       <c r="J40" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="7">
         <v>38801</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -12865,7 +12866,7 @@
       <c r="J41" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="7">
         <v>39402</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -12997,7 +12998,7 @@
       <c r="J43" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="7">
         <v>39485</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -13063,7 +13064,7 @@
       <c r="J44" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="7">
         <v>39169</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -13129,7 +13130,7 @@
       <c r="J45" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="7">
         <v>39166</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -15957,7 +15958,7 @@
       <c r="B2" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>38478</v>
       </c>
       <c r="D2" s="5">
@@ -15974,7 +15975,7 @@
       <c r="B3" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>40195</v>
       </c>
       <c r="D3" s="5">
@@ -15991,7 +15992,7 @@
       <c r="B4" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>39606</v>
       </c>
       <c r="D4" s="1">
@@ -16008,7 +16009,7 @@
       <c r="B5" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>38553</v>
       </c>
       <c r="D5" s="5">
@@ -16025,7 +16026,7 @@
       <c r="B6" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>38137</v>
       </c>
       <c r="D6" s="5">
@@ -16042,7 +16043,7 @@
       <c r="B7" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>38051</v>
       </c>
       <c r="D7" s="5">
@@ -16059,7 +16060,7 @@
       <c r="B8" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>38434</v>
       </c>
       <c r="D8" s="5">
@@ -16076,7 +16077,7 @@
       <c r="B9" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>39554</v>
       </c>
       <c r="D9" s="5">
@@ -16093,7 +16094,7 @@
       <c r="B10" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>40070</v>
       </c>
       <c r="D10" s="5">
@@ -16110,7 +16111,7 @@
       <c r="B11" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>39892</v>
       </c>
       <c r="D11" s="5">
@@ -16127,7 +16128,7 @@
       <c r="B12" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>38518</v>
       </c>
       <c r="D12" s="5">
@@ -16144,7 +16145,7 @@
       <c r="B13" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>38070</v>
       </c>
       <c r="D13" s="5">
@@ -16161,7 +16162,7 @@
       <c r="B14" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>39581</v>
       </c>
       <c r="D14" s="5">
@@ -16178,7 +16179,7 @@
       <c r="B15" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>39331</v>
       </c>
       <c r="D15" s="5">
@@ -16195,7 +16196,7 @@
       <c r="B16" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>38801</v>
       </c>
       <c r="D16" s="1">
@@ -16229,7 +16230,7 @@
       <c r="B18" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>39485</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -16246,7 +16247,7 @@
       <c r="B19" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>39166</v>
       </c>
       <c r="D19" s="1">
@@ -16261,7 +16262,7 @@
       <c r="B20" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
@@ -16272,7 +16273,7 @@
       <c r="B21" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>39875</v>
       </c>
       <c r="D21" s="1">
@@ -16289,7 +16290,7 @@
       <c r="B22" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>39035</v>
       </c>
       <c r="D22" s="5">
@@ -16306,7 +16307,7 @@
       <c r="B23" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>39617</v>
       </c>
       <c r="D23" s="5">
@@ -16323,7 +16324,7 @@
       <c r="B24" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>39038</v>
       </c>
       <c r="D24" s="5">
@@ -16340,7 +16341,7 @@
       <c r="B25" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>38174</v>
       </c>
       <c r="D25" s="5">
@@ -16357,7 +16358,7 @@
       <c r="B26" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>38262</v>
       </c>
       <c r="D26" s="5">
@@ -16374,7 +16375,7 @@
       <c r="B27" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>39448</v>
       </c>
       <c r="D27" s="5">
@@ -16391,7 +16392,7 @@
       <c r="B28" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>39585</v>
       </c>
       <c r="D28" s="5">
@@ -16408,7 +16409,7 @@
       <c r="B29" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>39367</v>
       </c>
       <c r="D29" s="5">
@@ -16425,7 +16426,7 @@
       <c r="B30" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>39154</v>
       </c>
       <c r="D30" s="5">
@@ -16442,7 +16443,7 @@
       <c r="B31" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>39766</v>
       </c>
       <c r="D31" s="5">
@@ -16459,7 +16460,7 @@
       <c r="B32" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>39649</v>
       </c>
       <c r="D32" s="1">
@@ -16476,7 +16477,7 @@
       <c r="B33" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="7">
         <v>39338</v>
       </c>
       <c r="D33" s="1">
@@ -16493,7 +16494,7 @@
       <c r="B34" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>38629</v>
       </c>
       <c r="D34" s="5">
@@ -16510,7 +16511,7 @@
       <c r="B35" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>39707</v>
       </c>
       <c r="D35" s="5">
@@ -16527,7 +16528,7 @@
       <c r="B36" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>38766</v>
       </c>
       <c r="D36" s="5">
@@ -16544,7 +16545,7 @@
       <c r="B37" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>37823</v>
       </c>
       <c r="D37" s="1">
@@ -16561,7 +16562,7 @@
       <c r="B38" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>37703</v>
       </c>
       <c r="D38" s="5">
@@ -16578,7 +16579,7 @@
       <c r="B39" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>39656</v>
       </c>
       <c r="D39" s="1">
@@ -16595,7 +16596,7 @@
       <c r="B40" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>39409</v>
       </c>
       <c r="D40" s="5">
@@ -16612,7 +16613,7 @@
       <c r="B41" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>39053</v>
       </c>
       <c r="D41" s="5">
@@ -16629,7 +16630,7 @@
       <c r="B42" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>39313</v>
       </c>
       <c r="D42" s="5">
@@ -16646,7 +16647,7 @@
       <c r="B43" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>39367</v>
       </c>
       <c r="D43" s="5">
@@ -16663,7 +16664,7 @@
       <c r="B44" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>39402</v>
       </c>
       <c r="D44" s="5">
@@ -16680,7 +16681,7 @@
       <c r="B45" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>39169</v>
       </c>
       <c r="D45" s="5">
@@ -16697,7 +16698,7 @@
       <c r="B46" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>38558</v>
       </c>
       <c r="D46" s="1">
@@ -17429,39 +17430,39 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AE19"/>
+  <dimension ref="B1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
-    <col min="4" max="5" width="19.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="8.77777777777778" customWidth="1"/>
-    <col min="7" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="27.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="20.5185185185185" customWidth="1"/>
-    <col min="12" max="12" width="10.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="29.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="37.1203703703704" customWidth="1"/>
-    <col min="16" max="16" width="16.8611111111111" customWidth="1"/>
-    <col min="17" max="17" width="11.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="11.7777777777778"/>
-    <col min="19" max="19" width="10.8888888888889"/>
-    <col min="23" max="23" width="12.8888888888889"/>
-    <col min="25" max="25" width="27.2222222222222" customWidth="1"/>
-    <col min="29" max="29" width="12.8888888888889"/>
+    <col min="4" max="6" width="19.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.77777777777778" customWidth="1"/>
+    <col min="8" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="27.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
+    <col min="12" max="12" width="20.5185185185185" customWidth="1"/>
+    <col min="13" max="13" width="10.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="29.7777777777778" customWidth="1"/>
+    <col min="16" max="16" width="37.1203703703704" customWidth="1"/>
+    <col min="17" max="17" width="16.8611111111111" customWidth="1"/>
+    <col min="18" max="18" width="11.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="11.7777777777778"/>
+    <col min="20" max="20" width="10.8888888888889"/>
+    <col min="24" max="24" width="12.8888888888889"/>
+    <col min="26" max="26" width="27.2222222222222" customWidth="1"/>
+    <col min="30" max="30" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31">
+    <row r="1" spans="2:32">
       <c r="B1" s="1" t="s">
         <v>718</v>
       </c>
@@ -17472,16 +17473,16 @@
         <v>720</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>954</v>
@@ -17493,55 +17494,58 @@
         <v>956</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-    </row>
-    <row r="2" spans="2:31">
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="2:32">
       <c r="B2" s="1" t="s">
         <v>316</v>
       </c>
@@ -17557,65 +17561,70 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="M2" s="1">
         <v>630</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>9</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>89118124048</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R2" s="5">
+      <c r="S2" s="5">
         <v>4018281460</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="2:31">
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="2:32">
       <c r="B3" s="1" t="s">
         <v>322</v>
       </c>
@@ -17640,60 +17649,63 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>5000</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>225</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>9</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>89215575265</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="7">
         <v>38553</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>4019397258</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X3" s="5">
         <v>89213205528</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="2:31">
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="2:32">
       <c r="B4" s="1" t="s">
         <v>368</v>
       </c>
@@ -17703,67 +17715,70 @@
       <c r="D4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>7000</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="6">
         <v>6</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>89111291746</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="7">
         <v>39606</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>42732</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>79119331333</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="2:31">
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="2:32">
       <c r="B5" s="1" t="s">
         <v>327</v>
       </c>
@@ -17788,58 +17803,61 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
         <v>320</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>6</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>89817406171</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="7">
         <v>39554</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>89052274602</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="2:31">
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="2:32">
       <c r="B6" s="1" t="s">
         <v>333</v>
       </c>
@@ -17852,66 +17870,71 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
+        <v>7000</v>
+      </c>
+      <c r="M6" s="1">
         <v>225</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>10</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>89818346175</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="7">
         <v>38137</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>4018085917</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <v>89117966505</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="2:31">
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="2:32">
       <c r="B7" s="1" t="s">
         <v>375</v>
       </c>
@@ -17927,61 +17950,66 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="M7" s="5">
         <v>441</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>7</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>89213354865</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="7">
         <v>39166</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>79522270284</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="2:31">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="2:32">
       <c r="B8" s="1" t="s">
         <v>381</v>
       </c>
@@ -17992,64 +18020,65 @@
         <v>383</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>628</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>9</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>89215747616</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="7">
         <v>38518</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>4019418643</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <v>89219451925</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="2:31">
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="2:32">
       <c r="B9" s="1" t="s">
         <v>386</v>
       </c>
@@ -18065,67 +18094,70 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
         <v>5000</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>12</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>6</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="7">
         <v>39485</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>89213132221</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="2:31">
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="2:32">
       <c r="B10" s="1" t="s">
         <v>338</v>
       </c>
@@ -18150,60 +18182,63 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="M10" s="5">
         <v>171</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>89117922339</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="7">
         <v>39892</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <v>89119357764</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="2:31">
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="2:32">
       <c r="B11" s="1" t="s">
         <v>392</v>
       </c>
@@ -18219,65 +18254,68 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="5">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5">
         <v>504</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>10</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>89111652301</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="7">
         <v>38434</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>4018287872</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <v>89817910834</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="2:31">
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="2:32">
       <c r="B12" s="1" t="s">
         <v>397</v>
       </c>
@@ -18287,65 +18325,68 @@
       <c r="D12" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="5">
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
         <v>230</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>8</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>89650129007</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="7">
         <v>38801</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>4019601130</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>79602472548</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="2:31">
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="2:32">
       <c r="B13" s="1" t="s">
         <v>402</v>
       </c>
@@ -18355,69 +18396,70 @@
       <c r="D13" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
         <v>49</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>6</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>89259175393</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="7">
         <v>39581</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>89165382822</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="2:31">
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="2:32">
       <c r="B14" s="1" t="s">
         <v>344</v>
       </c>
@@ -18430,70 +18472,75 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="5">
+      <c r="L14" s="1">
+        <v>7000</v>
+      </c>
+      <c r="M14" s="5">
         <v>225</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>10</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>89111959536</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="7">
         <v>38051</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>4018034409</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <v>89112207532</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="2:31">
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="2:32">
       <c r="B15" s="1" t="s">
         <v>408</v>
       </c>
@@ -18506,66 +18553,71 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5">
+      <c r="L15" s="1">
+        <v>7000</v>
+      </c>
+      <c r="M15" s="5">
         <v>518</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>89313127300</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="7">
         <v>40070</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="W15" s="5">
+      <c r="X15" s="5">
         <v>89213409406</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="2:31">
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="2:32">
       <c r="B16" s="1" t="s">
         <v>414</v>
       </c>
@@ -18581,65 +18633,68 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5">
         <v>183</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>7</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>89610752525</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="7">
         <v>39331</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="W16" s="5">
+      <c r="X16" s="5">
         <v>89610717771</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="2:31">
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="2:32">
       <c r="B17" s="1" t="s">
         <v>419</v>
       </c>
@@ -18655,63 +18710,66 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>2000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>64</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>5</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>89633411161</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="7">
         <v>40195</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="W17" s="5">
+      <c r="X17" s="5">
         <v>89657737525</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="2:31">
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="2:32">
       <c r="B18" s="1" t="s">
         <v>349</v>
       </c>
@@ -18721,88 +18779,100 @@
       <c r="D18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="5">
+      <c r="L18" s="1"/>
+      <c r="M18" s="5">
         <v>246</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>10</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>89312711134</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="7">
         <v>38070</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>4018029738</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="W18" s="5">
+      <c r="X18" s="5">
         <v>89218717677</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C19" t="s">
         <v>317</v>
       </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>959</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <v>1</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>7000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X19">
+  <autoFilter ref="A1:Y19">
     <extLst/>
   </autoFilter>
-  <sortState ref="B2:AF18">
+  <sortState ref="B2:AG18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18822,12 +18892,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="25.8518518518519" style="131" customWidth="1"/>
-    <col min="3" max="3" width="15.9074074074074" style="153" customWidth="1"/>
+    <col min="3" max="3" width="15.9074074074074" style="149" customWidth="1"/>
     <col min="4" max="4" width="29.5740740740741" style="131" customWidth="1"/>
     <col min="5" max="7" width="9" style="131"/>
     <col min="8" max="8" width="22.712962962963" style="131" customWidth="1"/>
-    <col min="9" max="9" width="22.712962962963" style="154" customWidth="1"/>
-    <col min="10" max="11" width="8.85185185185185" style="154"/>
+    <col min="9" max="9" width="22.712962962963" style="150" customWidth="1"/>
+    <col min="10" max="11" width="8.85185185185185" style="150"/>
     <col min="12" max="16384" width="9" style="131"/>
   </cols>
   <sheetData>
@@ -18835,7 +18905,7 @@
       <c r="B1" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="149" t="s">
         <v>99</v>
       </c>
     </row>
@@ -18843,10 +18913,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="152" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="11"/>
@@ -18855,10 +18925,10 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="152" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="131" t="s">
@@ -18869,10 +18939,10 @@
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="152" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="131" t="s">
@@ -18883,10 +18953,10 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="152" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="131" t="s">
@@ -18897,10 +18967,10 @@
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="156">
+      <c r="C6" s="152">
         <v>4</v>
       </c>
       <c r="D6" s="131" t="s">
@@ -18911,10 +18981,10 @@
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="152" t="s">
         <v>110</v>
       </c>
     </row>
@@ -18922,10 +18992,10 @@
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="153">
+      <c r="C8" s="149">
         <v>2</v>
       </c>
       <c r="D8" s="131" t="s">
@@ -18936,10 +19006,10 @@
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="152" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="131" t="s">
@@ -18950,10 +19020,10 @@
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="156">
+      <c r="C10" s="152">
         <v>1</v>
       </c>
     </row>
@@ -18961,7 +19031,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="151" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -18972,10 +19042,10 @@
       <c r="A12" s="11">
         <v>2</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="152" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="131" t="s">
@@ -18989,7 +19059,7 @@
       <c r="B13" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="149">
         <v>2</v>
       </c>
     </row>
@@ -19000,7 +19070,7 @@
       <c r="B14" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="149" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="131" t="s">
@@ -19014,7 +19084,7 @@
       <c r="B15" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="153">
+      <c r="C15" s="149">
         <v>2</v>
       </c>
     </row>
@@ -19025,7 +19095,7 @@
       <c r="B16" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="153">
+      <c r="C16" s="149">
         <v>2</v>
       </c>
     </row>
@@ -19033,10 +19103,10 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="156">
+      <c r="C17" s="152">
         <v>10</v>
       </c>
       <c r="D17" s="131" t="s">
@@ -19047,10 +19117,10 @@
       <c r="A18" s="11">
         <v>2</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="152" t="s">
         <v>128</v>
       </c>
     </row>
@@ -19058,10 +19128,10 @@
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="152" t="s">
         <v>122</v>
       </c>
     </row>
@@ -19069,10 +19139,10 @@
       <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="152" t="s">
         <v>131</v>
       </c>
     </row>
@@ -19080,10 +19150,10 @@
       <c r="A21" s="11">
         <v>2</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="152" t="s">
         <v>133</v>
       </c>
     </row>
@@ -19091,10 +19161,10 @@
       <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="156" t="s">
+      <c r="C22" s="152" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19102,10 +19172,10 @@
       <c r="A23" s="11">
         <v>3</v>
       </c>
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="152" t="s">
         <v>103</v>
       </c>
     </row>
@@ -19113,7 +19183,7 @@
       <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="151" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -19124,10 +19194,10 @@
       <c r="A25" s="11">
         <v>3</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="152" t="s">
         <v>140</v>
       </c>
     </row>
@@ -19135,10 +19205,10 @@
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="156">
+      <c r="C26" s="152">
         <v>15</v>
       </c>
     </row>
@@ -19146,10 +19216,10 @@
       <c r="A27" s="11">
         <v>3</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="153" t="s">
+      <c r="C27" s="149" t="s">
         <v>143</v>
       </c>
     </row>
@@ -19157,10 +19227,10 @@
       <c r="A28" s="11">
         <v>3</v>
       </c>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="152" t="s">
         <v>145</v>
       </c>
     </row>
@@ -19168,10 +19238,10 @@
       <c r="A29" s="11">
         <v>3</v>
       </c>
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="152" t="s">
         <v>147</v>
       </c>
     </row>
@@ -19179,10 +19249,10 @@
       <c r="A30" s="11">
         <v>3</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="152" t="s">
         <v>149</v>
       </c>
     </row>
@@ -19190,10 +19260,10 @@
       <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="156">
+      <c r="C31" s="152">
         <v>2</v>
       </c>
     </row>
@@ -19201,10 +19271,10 @@
       <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="152" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19212,10 +19282,10 @@
       <c r="A33" s="11">
         <v>4</v>
       </c>
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="153" t="s">
+      <c r="C33" s="149" t="s">
         <v>154</v>
       </c>
     </row>
@@ -19223,10 +19293,10 @@
       <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="156" t="s">
+      <c r="C34" s="152" t="s">
         <v>156</v>
       </c>
     </row>
@@ -19234,10 +19304,10 @@
       <c r="A35" s="11">
         <v>4</v>
       </c>
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="156" t="s">
+      <c r="C35" s="152" t="s">
         <v>158</v>
       </c>
     </row>
@@ -19245,10 +19315,10 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="152" t="s">
         <v>160</v>
       </c>
     </row>
@@ -19256,10 +19326,10 @@
       <c r="A37" s="11">
         <v>4</v>
       </c>
-      <c r="B37" s="155" t="s">
+      <c r="B37" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="156" t="s">
+      <c r="C37" s="152" t="s">
         <v>101</v>
       </c>
     </row>
@@ -19267,10 +19337,10 @@
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="155" t="s">
+      <c r="B38" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="156">
+      <c r="C38" s="152">
         <v>8</v>
       </c>
     </row>
@@ -19278,37 +19348,37 @@
       <c r="A39" s="11">
         <v>4</v>
       </c>
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="152" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="156" t="s">
+      <c r="C40" s="152" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="156" t="s">
+      <c r="C41" s="152" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="156" t="s">
+      <c r="C42" s="152" t="s">
         <v>107</v>
       </c>
     </row>
@@ -19316,16 +19386,16 @@
       <c r="B43" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="153" t="s">
+      <c r="C43" s="149" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11"/>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="156" t="s">
+      <c r="C45" s="152" t="s">
         <v>173</v>
       </c>
       <c r="D45" s="131" t="s">
@@ -19334,10 +19404,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="156" t="s">
+      <c r="C46" s="152" t="s">
         <v>176</v>
       </c>
     </row>
@@ -19345,7 +19415,7 @@
       <c r="B48" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="153" t="s">
+      <c r="C48" s="149" t="s">
         <v>178</v>
       </c>
       <c r="D48" s="131" t="s">
@@ -19356,7 +19426,7 @@
       <c r="B49" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="153">
+      <c r="C49" s="149">
         <v>4</v>
       </c>
       <c r="D49" s="131" t="s">
@@ -19367,7 +19437,7 @@
       <c r="A50" s="11">
         <v>4</v>
       </c>
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="151" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="11"/>
@@ -19469,7 +19539,7 @@
       <c r="F3" s="137"/>
       <c r="G3" s="137"/>
       <c r="H3" s="137"/>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="145" t="s">
         <v>192</v>
       </c>
       <c r="J3" s="141"/>
@@ -19479,13 +19549,13 @@
       <c r="A4" s="143">
         <v>41760</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="137" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="136" t="s">
         <v>195</v>
       </c>
       <c r="E4" s="136" t="s">
@@ -19549,7 +19619,7 @@
       <c r="A6" s="143">
         <v>41762</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="137" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="137" t="s">
@@ -19558,22 +19628,22 @@
       <c r="D6" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="137" t="s">
         <v>198</v>
       </c>
       <c r="H6" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="144" t="s">
+      <c r="J6" s="137" t="s">
         <v>211</v>
       </c>
       <c r="K6" s="137" t="s">
@@ -19631,7 +19701,7 @@
       <c r="K9" s="137"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="146">
+      <c r="A10" s="144">
         <v>41766</v>
       </c>
       <c r="B10" s="137"/>
@@ -19643,7 +19713,7 @@
       <c r="I10" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="136" t="s">
         <v>213</v>
       </c>
       <c r="K10" s="137" t="s">
@@ -19651,7 +19721,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="146">
+      <c r="A11" s="144">
         <v>41767</v>
       </c>
       <c r="B11" s="137" t="s">
@@ -19660,7 +19730,7 @@
       <c r="C11" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="136" t="s">
         <v>202</v>
       </c>
       <c r="E11" s="136" t="s">
@@ -19684,7 +19754,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="146">
+      <c r="A12" s="144">
         <v>41768</v>
       </c>
       <c r="B12" s="137" t="s">
@@ -19716,27 +19786,27 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="146">
+      <c r="A13" s="144">
         <v>41769</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="137" t="s">
         <v>218</v>
       </c>
       <c r="C13" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="147" t="s">
+      <c r="E13" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="143"/>
@@ -19759,18 +19829,17 @@
       <c r="B16" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="149">
+      <c r="C16" s="136">
         <v>5</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150">
+      <c r="E16" s="146">
         <v>2.5</v>
       </c>
-      <c r="F16" s="149">
+      <c r="F16" s="136">
         <f t="shared" ref="F16:F18" si="0">C16*E16</f>
         <v>12.5</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="136" t="s">
         <v>225</v>
       </c>
     </row>
@@ -19778,18 +19847,17 @@
       <c r="B17" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="149">
+      <c r="C17" s="136">
         <v>3</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="150">
+      <c r="E17" s="146">
         <v>2.5</v>
       </c>
-      <c r="F17" s="149">
+      <c r="F17" s="136">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G17" s="151" t="s">
+      <c r="G17" s="147" t="s">
         <v>225</v>
       </c>
     </row>
@@ -19797,57 +19865,49 @@
       <c r="B18" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="149">
+      <c r="C18" s="136">
         <v>4</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150">
+      <c r="E18" s="146">
         <v>3</v>
       </c>
-      <c r="F18" s="149">
+      <c r="F18" s="136">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G18" s="149" t="s">
+      <c r="G18" s="136" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:5">
       <c r="B19" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="149">
+      <c r="C19" s="136">
         <v>1</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="E19" s="146"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="136" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="149">
+      <c r="C20" s="136">
         <v>1</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
+      <c r="E20" s="146"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="149">
+      <c r="C21" s="136">
         <v>2</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150">
+      <c r="E21" s="146">
         <v>2.5</v>
       </c>
-      <c r="F21" s="149">
+      <c r="F21" s="136">
         <f t="shared" ref="F21:F23" si="1">C21*E21</f>
         <v>5</v>
       </c>
@@ -19859,14 +19919,13 @@
       <c r="B22" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="149">
+      <c r="C22" s="136">
         <v>7</v>
       </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="150">
+      <c r="E22" s="146">
         <v>5</v>
       </c>
-      <c r="F22" s="149">
+      <c r="F22" s="136">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -19878,14 +19937,13 @@
       <c r="B23" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="149">
+      <c r="C23" s="136">
         <v>5</v>
       </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150">
+      <c r="E23" s="146">
         <v>3</v>
       </c>
-      <c r="F23" s="149">
+      <c r="F23" s="136">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -19893,51 +19951,44 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:5">
       <c r="B24" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="149">
+      <c r="C24" s="136">
         <v>5</v>
       </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="149"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="E24" s="146"/>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="136">
         <v>3</v>
       </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="149"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="E25" s="146"/>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="149">
+      <c r="C26" s="136">
         <v>5</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="149"/>
+      <c r="E26" s="146"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="149">
+      <c r="C27" s="136">
         <v>1</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="152">
+      <c r="E27" s="148">
         <v>1.5</v>
       </c>
-      <c r="F27" s="149">
+      <c r="F27" s="136">
         <f>C27*E27</f>
         <v>1.5</v>
       </c>
@@ -19945,62 +19996,53 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:5">
       <c r="B28" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="149">
+      <c r="C28" s="136">
         <v>1</v>
       </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="149"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="E28" s="148"/>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="149">
+      <c r="C29" s="136">
         <v>1</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="149"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="E29" s="148"/>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="149">
+      <c r="C30" s="136">
         <v>12</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="149"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="E30" s="148"/>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="149">
+      <c r="C31" s="136">
         <v>12</v>
       </c>
-      <c r="D31" s="149"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="149"/>
+      <c r="E31" s="148"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="149">
+      <c r="C32" s="136">
         <v>8</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150">
+      <c r="E32" s="146">
         <v>2</v>
       </c>
-      <c r="F32" s="149">
+      <c r="F32" s="136">
         <f t="shared" ref="F32:F40" si="2">C32*E32</f>
         <v>16</v>
       </c>
@@ -20012,14 +20054,13 @@
       <c r="B33" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="149">
+      <c r="C33" s="136">
         <v>5</v>
       </c>
-      <c r="D33" s="149"/>
-      <c r="E33" s="150">
+      <c r="E33" s="146">
         <v>1</v>
       </c>
-      <c r="F33" s="149">
+      <c r="F33" s="136">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -20031,14 +20072,13 @@
       <c r="B34" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="149">
+      <c r="C34" s="136">
         <v>5</v>
       </c>
-      <c r="D34" s="149"/>
-      <c r="E34" s="150">
+      <c r="E34" s="146">
         <v>3</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="136">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -20050,14 +20090,13 @@
       <c r="B35" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="149">
+      <c r="C35" s="136">
         <v>23</v>
       </c>
-      <c r="D35" s="149"/>
-      <c r="E35" s="150">
+      <c r="E35" s="146">
         <v>0.15</v>
       </c>
-      <c r="F35" s="149">
+      <c r="F35" s="136">
         <f t="shared" si="2"/>
         <v>3.45</v>
       </c>
@@ -20069,14 +20108,13 @@
       <c r="B36" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="149">
+      <c r="C36" s="136">
         <v>1</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="150">
+      <c r="E36" s="146">
         <v>2</v>
       </c>
-      <c r="F36" s="149">
+      <c r="F36" s="136">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -20088,14 +20126,13 @@
       <c r="B37" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="149">
+      <c r="C37" s="136">
         <v>4</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="150">
+      <c r="E37" s="146">
         <v>1</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="136">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -20107,14 +20144,13 @@
       <c r="B38" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="149">
+      <c r="C38" s="136">
         <v>18</v>
       </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="150">
+      <c r="E38" s="146">
         <v>0.6</v>
       </c>
-      <c r="F38" s="149">
+      <c r="F38" s="136">
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
@@ -20126,14 +20162,13 @@
       <c r="B39" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="149">
+      <c r="C39" s="136">
         <v>3</v>
       </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="150">
+      <c r="E39" s="146">
         <v>5</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="136">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -20145,16 +20180,16 @@
       <c r="B40" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="149">
+      <c r="C40" s="136">
         <v>5</v>
       </c>
-      <c r="D40" s="149" t="s">
+      <c r="D40" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="150">
+      <c r="E40" s="146">
         <v>0.5</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="136">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
@@ -20162,31 +20197,29 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:5">
       <c r="B41" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="149">
+      <c r="C41" s="136">
         <v>3</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="149"/>
+      <c r="E41" s="146"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="149">
+      <c r="C42" s="136">
         <v>5</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="146">
         <v>0.2</v>
       </c>
-      <c r="F42" s="149">
+      <c r="F42" s="136">
         <v>3</v>
       </c>
       <c r="G42" s="136" t="s">
@@ -20197,14 +20230,13 @@
       <c r="B43" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="149">
+      <c r="C43" s="136">
         <v>3</v>
       </c>
-      <c r="D43" s="149"/>
-      <c r="E43" s="150">
+      <c r="E43" s="146">
         <v>1.5</v>
       </c>
-      <c r="F43" s="149">
+      <c r="F43" s="136">
         <f t="shared" ref="F43:F47" si="3">C43*E43</f>
         <v>4.5</v>
       </c>
@@ -20216,13 +20248,13 @@
       <c r="B44" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="149">
+      <c r="C44" s="136">
         <v>3</v>
       </c>
-      <c r="E44" s="150">
+      <c r="E44" s="146">
         <v>1</v>
       </c>
-      <c r="F44" s="149">
+      <c r="F44" s="136">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -20234,13 +20266,13 @@
       <c r="B45" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="149">
+      <c r="C45" s="136">
         <v>3</v>
       </c>
-      <c r="E45" s="150">
+      <c r="E45" s="146">
         <v>2</v>
       </c>
-      <c r="F45" s="149">
+      <c r="F45" s="136">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -20252,10 +20284,7 @@
       <c r="B46" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149">
+      <c r="F46" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20264,24 +20293,21 @@
       <c r="B47" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="149"/>
-      <c r="F47" s="149">
+      <c r="F47" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:2">
       <c r="B48" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="F48" s="149"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="149">
+      <c r="C49" s="136">
         <v>20</v>
       </c>
     </row>
@@ -20755,7 +20781,7 @@
       <c r="O6" s="5">
         <v>4019397258</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="7">
         <v>38553</v>
       </c>
     </row>
@@ -20798,7 +20824,7 @@
       <c r="O7" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="7">
         <v>39554</v>
       </c>
     </row>
@@ -20841,7 +20867,7 @@
       <c r="O8" s="5">
         <v>4018085917</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="7">
         <v>38137</v>
       </c>
     </row>
@@ -20884,7 +20910,7 @@
       <c r="O9" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="7">
         <v>39892</v>
       </c>
     </row>
@@ -20925,7 +20951,7 @@
       <c r="O10" s="5">
         <v>4018034409</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="7">
         <v>38051</v>
       </c>
     </row>
@@ -20968,7 +20994,7 @@
       <c r="O11" s="5">
         <v>4018029738</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="7">
         <v>38070</v>
       </c>
     </row>
@@ -21219,7 +21245,7 @@
       <c r="H31" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>6</v>
       </c>
       <c r="J31" s="1">
@@ -21237,7 +21263,7 @@
       <c r="O31" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="7">
         <v>39606</v>
       </c>
     </row>
@@ -21273,7 +21299,7 @@
       <c r="O32" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="7">
         <v>39166</v>
       </c>
       <c r="V32" s="130"/>
@@ -21311,7 +21337,7 @@
       <c r="O33" s="5">
         <v>4019418643</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="7">
         <v>38518</v>
       </c>
     </row>
@@ -21346,7 +21372,7 @@
       <c r="O34" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="7">
         <v>39485</v>
       </c>
     </row>
@@ -21381,7 +21407,7 @@
       <c r="O35" s="5">
         <v>4018287872</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="7">
         <v>38434</v>
       </c>
     </row>
@@ -21416,7 +21442,7 @@
       <c r="O36" s="5">
         <v>4019601130</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="7">
         <v>38801</v>
       </c>
     </row>
@@ -21451,7 +21477,7 @@
       <c r="O37" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="7">
         <v>39581</v>
       </c>
     </row>
@@ -21486,7 +21512,7 @@
       <c r="O38" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="7">
         <v>40070</v>
       </c>
     </row>
@@ -21521,7 +21547,7 @@
       <c r="O39" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="7">
         <v>39331</v>
       </c>
     </row>
@@ -21556,7 +21582,7 @@
       <c r="O40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="7">
         <v>40195</v>
       </c>
     </row>

--- a/Jashera 2021/Jashera 2021.xlsx
+++ b/Jashera 2021/Jashera 2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9407" tabRatio="804" firstSheet="9" activeTab="14"/>
+    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="804" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Список оборудования" sheetId="12" r:id="rId1"/>
@@ -3041,15 +3041,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="181" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="180" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="182" formatCode="[$-419]d\ mm\ yyyy;@"/>
     <numFmt numFmtId="183" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="184" formatCode="0.0"/>
   </numFmts>
@@ -3238,81 +3238,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3329,6 +3254,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3338,7 +3316,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3353,30 +3375,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3421,67 +3421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3499,7 +3439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3511,19 +3451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3535,19 +3475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,13 +3493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3583,7 +3517,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3595,7 +3595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3788,17 +3788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3810,21 +3810,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3844,26 +3829,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3885,157 +3870,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -4190,7 +4190,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4213,11 +4213,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="71" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4413,8 +4413,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5694,8 +5694,8 @@
   <sheetPr/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10239,11 +10239,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:Z145"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:S$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10457,7 +10457,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" ht="15.15" hidden="1" spans="1:26">
+    <row r="4" ht="15.15" spans="1:26">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" ht="15.15" hidden="1" spans="1:26">
+    <row r="5" ht="15.15" spans="1:26">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10721,7 +10721,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" ht="15.15" hidden="1" spans="1:26">
+    <row r="8" ht="15.15" spans="1:26">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10981,7 +10981,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" ht="15.15" hidden="1" spans="1:26">
+    <row r="12" ht="15.15" spans="1:26">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11047,7 +11047,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" ht="15.15" hidden="1" spans="1:26">
+    <row r="13" ht="15.15" spans="1:26">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11113,7 +11113,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" ht="15.15" hidden="1" spans="1:26">
+    <row r="14" ht="15.15" spans="1:26">
       <c r="A14">
         <v>14</v>
       </c>
@@ -11245,7 +11245,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" ht="15.15" hidden="1" spans="1:26">
+    <row r="16" ht="15.15" spans="1:26">
       <c r="A16">
         <v>16</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" ht="15.15" hidden="1" spans="1:26">
+    <row r="17" ht="15.15" spans="1:26">
       <c r="A17">
         <v>17</v>
       </c>
@@ -11443,7 +11443,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" ht="15.15" hidden="1" spans="1:26">
+    <row r="19" ht="15.15" spans="1:26">
       <c r="A19">
         <v>19</v>
       </c>
@@ -11507,7 +11507,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" ht="15.15" hidden="1" spans="1:26">
+    <row r="20" ht="15.15" spans="1:26">
       <c r="A20">
         <v>20</v>
       </c>
@@ -11573,7 +11573,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" ht="15.15" hidden="1" spans="1:26">
+    <row r="21" ht="15.15" spans="1:26">
       <c r="A21">
         <v>21</v>
       </c>
@@ -11639,7 +11639,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" ht="15.15" hidden="1" spans="1:26">
+    <row r="22" ht="15.15" spans="1:26">
       <c r="A22">
         <v>22</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" ht="15.15" hidden="1" spans="1:26">
+    <row r="25" ht="15.15" spans="1:26">
       <c r="A25">
         <v>25</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" ht="15.15" hidden="1" spans="1:26">
+    <row r="27" ht="15.15" spans="1:26">
       <c r="A27">
         <v>27</v>
       </c>
@@ -12035,7 +12035,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" ht="15.15" hidden="1" spans="1:26">
+    <row r="28" ht="15.15" spans="1:26">
       <c r="A28">
         <v>28</v>
       </c>
@@ -12101,7 +12101,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" ht="15.15" hidden="1" spans="1:26">
+    <row r="29" ht="15.15" spans="1:26">
       <c r="A29">
         <v>29</v>
       </c>
@@ -12167,7 +12167,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" ht="15.15" hidden="1" spans="1:26">
+    <row r="30" ht="15.15" spans="1:26">
       <c r="A30">
         <v>30</v>
       </c>
@@ -12299,7 +12299,7 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
     </row>
-    <row r="32" ht="15.15" hidden="1" spans="1:26">
+    <row r="32" ht="15.15" spans="1:26">
       <c r="A32">
         <v>32</v>
       </c>
@@ -12363,7 +12363,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" ht="15.15" hidden="1" spans="1:26">
+    <row r="33" ht="15.15" spans="1:26">
       <c r="A33">
         <v>33</v>
       </c>
@@ -12429,7 +12429,7 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" ht="15.15" hidden="1" spans="1:26">
+    <row r="34" ht="15.15" spans="1:26">
       <c r="A34">
         <v>34</v>
       </c>
@@ -12495,7 +12495,7 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" ht="15.15" hidden="1" spans="1:26">
+    <row r="35" ht="15.15" spans="1:26">
       <c r="A35">
         <v>35</v>
       </c>
@@ -12561,7 +12561,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" ht="15.15" hidden="1" spans="1:26">
+    <row r="36" ht="15.15" spans="1:26">
       <c r="A36">
         <v>36</v>
       </c>
@@ -12693,7 +12693,7 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" ht="15.15" hidden="1" spans="1:26">
+    <row r="38" ht="15.15" spans="1:26">
       <c r="A38">
         <v>39</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" ht="15.15" hidden="1" spans="1:26">
+    <row r="39" ht="15.15" spans="1:26">
       <c r="A39">
         <v>40</v>
       </c>
@@ -12891,7 +12891,7 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
     </row>
-    <row r="41" ht="15.15" hidden="1" spans="1:26">
+    <row r="41" ht="15.15" spans="1:26">
       <c r="A41">
         <v>42</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
     </row>
-    <row r="44" ht="15.15" hidden="1" spans="1:26">
+    <row r="44" ht="15.15" spans="1:26">
       <c r="A44">
         <v>45</v>
       </c>
@@ -13219,7 +13219,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" ht="15.15" hidden="1" spans="1:26">
+    <row r="46" ht="15.15" spans="1:26">
       <c r="A46">
         <v>47</v>
       </c>
@@ -15994,11 +15994,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:Z47">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="ВМВС"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17522,7 +17517,7 @@
   <sheetPr/>
   <dimension ref="B1:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
@@ -17868,7 +17863,7 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="2:32">
+    <row r="5" ht="15.15" spans="2:32">
       <c r="B5" s="11" t="s">
         <v>327</v>
       </c>
@@ -18170,7 +18165,7 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
     </row>
-    <row r="9" spans="2:32">
+    <row r="9" ht="15.15" spans="2:32">
       <c r="B9" s="11" t="s">
         <v>386</v>
       </c>
@@ -18330,7 +18325,7 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" ht="15.15" spans="2:32">
       <c r="B11" s="11" t="s">
         <v>392</v>
       </c>
@@ -18790,7 +18785,7 @@
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
     </row>
-    <row r="17" spans="2:32">
+    <row r="17" ht="15.15" spans="2:32">
       <c r="B17" s="11" t="s">
         <v>419</v>
       </c>
